--- a/data/influence2.xlsx
+++ b/data/influence2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/DissAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_3363FFC68F79A8D366075C52F37BD2721AC2F787" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7BB37D-069B-4E96-9723-7CA3CCC4FBB9}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_3363FFC68F79A8D366075C52F37BD2721AC2F787" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1307EAF8-EB69-43A0-88C9-9A8014DB15DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="794">
   <si>
     <t>rstudent</t>
   </si>
@@ -2350,53 +2350,65 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>water depth 8 cm, persa</t>
-  </si>
-  <si>
-    <t>persa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no strain reported, pretest mice</t>
-  </si>
-  <si>
-    <t>pretest mice</t>
-  </si>
-  <si>
-    <t>10/14, other studies from this publication also used this light regime, but for this comparsons the immobility time of vehicle was higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F, ovariectomized, subcutaneous</t>
-  </si>
-  <si>
-    <t>CUMs</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>erro na escala, corrigi na planilha crua</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stress reserpine</t>
-  </si>
-  <si>
-    <t>water depth 8 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sex? no info bioterium and duration of tratement</t>
-  </si>
-  <si>
-    <t>laca</t>
-  </si>
-  <si>
-    <t>erro tem stress, corrigi na planilha crua</t>
+    <t xml:space="preserve">water depth 8 cm, persa, quali 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">persa, quali 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no strain reported, pretest mice, quali 1</t>
+  </si>
+  <si>
+    <t>pretest mice, quali 5</t>
+  </si>
+  <si>
+    <t>10/14, other studies from this publication also used this light regime, but for this comparsons the immobility time of vehicle was higher, quali 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F, ovariectomized, subcutaneous, quali 5</t>
+  </si>
+  <si>
+    <t>CUMs, quali 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quali 3</t>
+  </si>
+  <si>
+    <t>quali 3</t>
+  </si>
+  <si>
+    <t>quali 4</t>
+  </si>
+  <si>
+    <t>erro na escala, corrigi na planilha crua, quali 4</t>
+  </si>
+  <si>
+    <t>pretest mice, quali 4</t>
+  </si>
+  <si>
+    <t>stress reserpine, quali 3</t>
+  </si>
+  <si>
+    <t>water depth 8 cm, quali 5</t>
+  </si>
+  <si>
+    <t>quali 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sex? no info bioterium and duration of tratement, quali 4</t>
+  </si>
+  <si>
+    <t>laca, quali 4</t>
+  </si>
+  <si>
+    <t>erro tem stress, corrigi na planilha crua, quali 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2408,6 +2420,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2779,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L291" sqref="L291"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="M558" sqref="M558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8445,7 +8463,7 @@
         <v>223</v>
       </c>
       <c r="M148" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -8486,7 +8504,7 @@
         <v>223</v>
       </c>
       <c r="M149" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -10845,7 +10863,7 @@
         <v>305</v>
       </c>
       <c r="M211" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -11684,7 +11702,7 @@
         <v>339</v>
       </c>
       <c r="M233" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -12105,7 +12123,7 @@
         <v>351</v>
       </c>
       <c r="M244" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13780,7 +13798,7 @@
         <v>403</v>
       </c>
       <c r="M288" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -13821,7 +13839,7 @@
         <v>403</v>
       </c>
       <c r="M289" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -13862,7 +13880,7 @@
         <v>403</v>
       </c>
       <c r="M290" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -13903,7 +13921,7 @@
         <v>411</v>
       </c>
       <c r="M291" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -14704,7 +14722,7 @@
         <v>441</v>
       </c>
       <c r="M312" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -14821,7 +14839,7 @@
         <v>441</v>
       </c>
       <c r="M315" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -15090,7 +15108,7 @@
         <v>456</v>
       </c>
       <c r="M322" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -15131,7 +15149,7 @@
         <v>456</v>
       </c>
       <c r="M323" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -15172,7 +15190,7 @@
         <v>456</v>
       </c>
       <c r="M324" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -15213,7 +15231,7 @@
         <v>456</v>
       </c>
       <c r="M325" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -15254,7 +15272,7 @@
         <v>456</v>
       </c>
       <c r="M326" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -15447,7 +15465,7 @@
         <v>467</v>
       </c>
       <c r="M331" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -15488,7 +15506,7 @@
         <v>467</v>
       </c>
       <c r="M332" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -16213,7 +16231,7 @@
         <v>498</v>
       </c>
       <c r="M351" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -16824,7 +16842,7 @@
         <v>518</v>
       </c>
       <c r="M367" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -21197,7 +21215,7 @@
         <v>667</v>
       </c>
       <c r="M482" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -21732,7 +21750,7 @@
         <v>685</v>
       </c>
       <c r="M496" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -24244,6 +24262,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/influence2.xlsx
+++ b/data/influence2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/DissAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_3363FFC68F79A8D366075C52F37BD2721AC2F787" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1307EAF8-EB69-43A0-88C9-9A8014DB15DD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_3363FFC68F79A8D366075C52F37BD2721AC2F787" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F2C7C5-62A1-4E43-A862-F1666D5A9D53}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="774">
   <si>
     <t>rstudent</t>
   </si>
@@ -2342,66 +2342,6 @@
   </si>
   <si>
     <t>561</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">water depth 8 cm, persa, quali 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">persa, quali 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no strain reported, pretest mice, quali 1</t>
-  </si>
-  <si>
-    <t>pretest mice, quali 5</t>
-  </si>
-  <si>
-    <t>10/14, other studies from this publication also used this light regime, but for this comparsons the immobility time of vehicle was higher, quali 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F, ovariectomized, subcutaneous, quali 5</t>
-  </si>
-  <si>
-    <t>CUMs, quali 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quali 3</t>
-  </si>
-  <si>
-    <t>quali 3</t>
-  </si>
-  <si>
-    <t>quali 4</t>
-  </si>
-  <si>
-    <t>erro na escala, corrigi na planilha crua, quali 4</t>
-  </si>
-  <si>
-    <t>pretest mice, quali 4</t>
-  </si>
-  <si>
-    <t>stress reserpine, quali 3</t>
-  </si>
-  <si>
-    <t>water depth 8 cm, quali 5</t>
-  </si>
-  <si>
-    <t>quali 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sex? no info bioterium and duration of tratement, quali 4</t>
-  </si>
-  <si>
-    <t>laca, quali 4</t>
-  </si>
-  <si>
-    <t>erro tem stress, corrigi na planilha crua, quali 5</t>
   </si>
 </sst>
 </file>
@@ -2451,12 +2391,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2795,15 +2734,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M562"/>
+  <dimension ref="A1:L562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="M558" sqref="M558"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2840,11 +2779,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.58875072834629949</v>
       </c>
@@ -2878,11 +2814,8 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.1201527697630469</v>
       </c>
@@ -2916,11 +2849,8 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7317582933757896</v>
       </c>
@@ -2954,11 +2884,8 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.79346736318996325</v>
       </c>
@@ -2992,11 +2919,8 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.19656223151271421</v>
       </c>
@@ -3030,11 +2954,8 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.3663145832846402</v>
       </c>
@@ -3068,11 +2989,8 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.53010283462816332</v>
       </c>
@@ -3106,11 +3024,8 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.28313785444105621</v>
       </c>
@@ -3144,11 +3059,8 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.55624384960705087</v>
       </c>
@@ -3182,11 +3094,8 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.94939260812266868</v>
       </c>
@@ -3220,11 +3129,8 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.2403151512283761</v>
       </c>
@@ -3258,11 +3164,8 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.40058673359937907</v>
       </c>
@@ -3296,11 +3199,8 @@
       <c r="L13" t="s">
         <v>31</v>
       </c>
-      <c r="M13" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.696290586146636</v>
       </c>
@@ -3334,11 +3234,8 @@
       <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="M14" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.23476346600899031</v>
       </c>
@@ -3372,11 +3269,8 @@
       <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="M15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.0461263500128128E-2</v>
       </c>
@@ -3410,11 +3304,8 @@
       <c r="L16" t="s">
         <v>37</v>
       </c>
-      <c r="M16" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.3771047749421088</v>
       </c>
@@ -3451,11 +3342,8 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-      <c r="M17" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.52437251101428717</v>
       </c>
@@ -3489,11 +3377,8 @@
       <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.0417306615827204</v>
       </c>
@@ -3530,11 +3415,8 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-      <c r="M19" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.1053978354410443</v>
       </c>
@@ -3568,11 +3450,8 @@
       <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="M20" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.0607822283951593</v>
       </c>
@@ -3606,11 +3485,8 @@
       <c r="L21" t="s">
         <v>44</v>
       </c>
-      <c r="M21" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.0877048772762548</v>
       </c>
@@ -3644,11 +3520,8 @@
       <c r="L22" t="s">
         <v>44</v>
       </c>
-      <c r="M22" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.38100442629257703</v>
       </c>
@@ -3682,11 +3555,8 @@
       <c r="L23" t="s">
         <v>49</v>
       </c>
-      <c r="M23" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.27268039578674741</v>
       </c>
@@ -3720,11 +3590,8 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="M24" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.81792496628886058</v>
       </c>
@@ -3758,11 +3625,8 @@
       <c r="L25" t="s">
         <v>49</v>
       </c>
-      <c r="M25" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.5710911149075335</v>
       </c>
@@ -3796,11 +3660,8 @@
       <c r="L26" t="s">
         <v>49</v>
       </c>
-      <c r="M26" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.644881780622363</v>
       </c>
@@ -3834,11 +3695,8 @@
       <c r="L27" t="s">
         <v>54</v>
       </c>
-      <c r="M27" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.6662428746407001</v>
       </c>
@@ -3872,11 +3730,8 @@
       <c r="L28" t="s">
         <v>54</v>
       </c>
-      <c r="M28" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.94950577802641</v>
       </c>
@@ -3910,11 +3765,8 @@
       <c r="L29" t="s">
         <v>54</v>
       </c>
-      <c r="M29" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.4151832841030101</v>
       </c>
@@ -3948,11 +3800,8 @@
       <c r="L30" t="s">
         <v>54</v>
       </c>
-      <c r="M30" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.6108418259207174E-3</v>
       </c>
@@ -3986,11 +3835,8 @@
       <c r="L31" t="s">
         <v>59</v>
       </c>
-      <c r="M31" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.8931606608111281</v>
       </c>
@@ -4024,11 +3870,8 @@
       <c r="L32" t="s">
         <v>59</v>
       </c>
-      <c r="M32" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.5048668974233379</v>
       </c>
@@ -4062,11 +3905,8 @@
       <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M33" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.696210690314794</v>
       </c>
@@ -4100,11 +3940,8 @@
       <c r="L34" t="s">
         <v>62</v>
       </c>
-      <c r="M34" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.29100118748305892</v>
       </c>
@@ -4138,11 +3975,8 @@
       <c r="L35" t="s">
         <v>62</v>
       </c>
-      <c r="M35" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.76645500435980962</v>
       </c>
@@ -4176,11 +4010,8 @@
       <c r="L36" t="s">
         <v>62</v>
       </c>
-      <c r="M36" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.75348001385299</v>
       </c>
@@ -4214,11 +4045,8 @@
       <c r="L37" t="s">
         <v>67</v>
       </c>
-      <c r="M37" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.2638642570546059</v>
       </c>
@@ -4252,11 +4080,8 @@
       <c r="L38" t="s">
         <v>67</v>
       </c>
-      <c r="M38" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.7486043976672971</v>
       </c>
@@ -4290,11 +4115,8 @@
       <c r="L39" t="s">
         <v>67</v>
       </c>
-      <c r="M39" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.365937111151895</v>
       </c>
@@ -4328,11 +4150,8 @@
       <c r="L40" t="s">
         <v>67</v>
       </c>
-      <c r="M40" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.483015909645264</v>
       </c>
@@ -4366,11 +4185,8 @@
       <c r="L41" t="s">
         <v>72</v>
       </c>
-      <c r="M41" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.76632671155686349</v>
       </c>
@@ -4404,11 +4220,8 @@
       <c r="L42" t="s">
         <v>72</v>
       </c>
-      <c r="M42" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3.1720651956920677E-2</v>
       </c>
@@ -4442,11 +4255,8 @@
       <c r="L43" t="s">
         <v>72</v>
       </c>
-      <c r="M43" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.67870933591570082</v>
       </c>
@@ -4480,11 +4290,8 @@
       <c r="L44" t="s">
         <v>72</v>
       </c>
-      <c r="M44" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-6.9435112095120752E-2</v>
       </c>
@@ -4518,11 +4325,8 @@
       <c r="L45" t="s">
         <v>77</v>
       </c>
-      <c r="M45" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.2263807019602942</v>
       </c>
@@ -4556,11 +4360,8 @@
       <c r="L46" t="s">
         <v>77</v>
       </c>
-      <c r="M46" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.675260499116046E-2</v>
       </c>
@@ -4594,11 +4395,8 @@
       <c r="L47" t="s">
         <v>77</v>
       </c>
-      <c r="M47" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.9823208589926109</v>
       </c>
@@ -4632,11 +4430,8 @@
       <c r="L48" t="s">
         <v>77</v>
       </c>
-      <c r="M48" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-7.8955002381498138E-3</v>
       </c>
@@ -4670,11 +4465,8 @@
       <c r="L49" t="s">
         <v>82</v>
       </c>
-      <c r="M49" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.5449286494421539</v>
       </c>
@@ -4711,11 +4503,8 @@
       <c r="L50" t="s">
         <v>84</v>
       </c>
-      <c r="M50" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3.004289751233542</v>
       </c>
@@ -4752,11 +4541,8 @@
       <c r="L51" t="s">
         <v>84</v>
       </c>
-      <c r="M51" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8248421790453668</v>
       </c>
@@ -4793,11 +4579,8 @@
       <c r="L52" t="s">
         <v>84</v>
       </c>
-      <c r="M52" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.084066214094066</v>
       </c>
@@ -4831,11 +4614,8 @@
       <c r="L53" t="s">
         <v>88</v>
       </c>
-      <c r="M53" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.4160675232968199</v>
       </c>
@@ -4869,11 +4649,8 @@
       <c r="L54" t="s">
         <v>90</v>
       </c>
-      <c r="M54" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.38571954838713518</v>
       </c>
@@ -4907,11 +4684,8 @@
       <c r="L55" t="s">
         <v>92</v>
       </c>
-      <c r="M55" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.56567012126832394</v>
       </c>
@@ -4945,11 +4719,8 @@
       <c r="L56" t="s">
         <v>92</v>
       </c>
-      <c r="M56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.1012849280948485</v>
       </c>
@@ -4983,11 +4754,8 @@
       <c r="L57" t="s">
         <v>92</v>
       </c>
-      <c r="M57" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.25440448493958973</v>
       </c>
@@ -5021,11 +4789,8 @@
       <c r="L58" t="s">
         <v>96</v>
       </c>
-      <c r="M58" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.6528787561913112</v>
       </c>
@@ -5059,11 +4824,8 @@
       <c r="L59" t="s">
         <v>96</v>
       </c>
-      <c r="M59" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.7363187705040142</v>
       </c>
@@ -5097,11 +4859,8 @@
       <c r="L60" t="s">
         <v>96</v>
       </c>
-      <c r="M60" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.1427277137673579</v>
       </c>
@@ -5135,11 +4894,8 @@
       <c r="L61" t="s">
         <v>96</v>
       </c>
-      <c r="M61" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.2079446011908521</v>
       </c>
@@ -5173,11 +4929,8 @@
       <c r="L62" t="s">
         <v>96</v>
       </c>
-      <c r="M62" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.99242675997571117</v>
       </c>
@@ -5211,11 +4964,8 @@
       <c r="L63" t="s">
         <v>102</v>
       </c>
-      <c r="M63" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.86690812156016084</v>
       </c>
@@ -5249,11 +4999,8 @@
       <c r="L64" t="s">
         <v>104</v>
       </c>
-      <c r="M64" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.3265039368385252</v>
       </c>
@@ -5290,11 +5037,8 @@
       <c r="L65" t="s">
         <v>106</v>
       </c>
-      <c r="M65" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.7251093535954477</v>
       </c>
@@ -5328,11 +5072,8 @@
       <c r="L66" t="s">
         <v>108</v>
       </c>
-      <c r="M66" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-9.4252855948481346E-2</v>
       </c>
@@ -5366,11 +5107,8 @@
       <c r="L67" t="s">
         <v>108</v>
       </c>
-      <c r="M67" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.4751076555071509</v>
       </c>
@@ -5404,11 +5142,8 @@
       <c r="L68" t="s">
         <v>111</v>
       </c>
-      <c r="M68" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.8153687806286318</v>
       </c>
@@ -5445,11 +5180,8 @@
       <c r="L69" t="s">
         <v>111</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.2944658442254391</v>
       </c>
@@ -5486,11 +5218,8 @@
       <c r="L70" t="s">
         <v>111</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.72674081321731776</v>
       </c>
@@ -5524,11 +5253,8 @@
       <c r="L71" t="s">
         <v>111</v>
       </c>
-      <c r="M71" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.634125690488202</v>
       </c>
@@ -5562,11 +5288,8 @@
       <c r="L72" t="s">
         <v>111</v>
       </c>
-      <c r="M72" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.1298332964003345</v>
       </c>
@@ -5600,11 +5323,8 @@
       <c r="L73" t="s">
         <v>117</v>
       </c>
-      <c r="M73" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.35871077752552982</v>
       </c>
@@ -5638,11 +5358,8 @@
       <c r="L74" t="s">
         <v>119</v>
       </c>
-      <c r="M74" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.44227148154819351</v>
       </c>
@@ -5676,11 +5393,8 @@
       <c r="L75" t="s">
         <v>119</v>
       </c>
-      <c r="M75" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.16880944928532149</v>
       </c>
@@ -5714,11 +5428,8 @@
       <c r="L76" t="s">
         <v>122</v>
       </c>
-      <c r="M76" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.19634347581559</v>
       </c>
@@ -5752,11 +5463,8 @@
       <c r="L77" t="s">
         <v>122</v>
       </c>
-      <c r="M77" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.692564894495419</v>
       </c>
@@ -5790,11 +5498,8 @@
       <c r="L78" t="s">
         <v>122</v>
       </c>
-      <c r="M78" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.670873733713834</v>
       </c>
@@ -5828,11 +5533,8 @@
       <c r="L79" t="s">
         <v>126</v>
       </c>
-      <c r="M79" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.053104889938818</v>
       </c>
@@ -5869,11 +5571,8 @@
       <c r="L80" t="s">
         <v>126</v>
       </c>
-      <c r="M80" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.1188543933205968</v>
       </c>
@@ -5907,11 +5606,8 @@
       <c r="L81" t="s">
         <v>126</v>
       </c>
-      <c r="M81" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.32377222140329998</v>
       </c>
@@ -5945,11 +5641,8 @@
       <c r="L82" t="s">
         <v>126</v>
       </c>
-      <c r="M82" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.69507424897438674</v>
       </c>
@@ -5983,11 +5676,8 @@
       <c r="L83" t="s">
         <v>131</v>
       </c>
-      <c r="M83" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.61944923178940114</v>
       </c>
@@ -6021,11 +5711,8 @@
       <c r="L84" t="s">
         <v>131</v>
       </c>
-      <c r="M84" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.22000088484665101</v>
       </c>
@@ -6059,11 +5746,8 @@
       <c r="L85" t="s">
         <v>131</v>
       </c>
-      <c r="M85" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.34257653462046389</v>
       </c>
@@ -6097,11 +5781,8 @@
       <c r="L86" t="s">
         <v>131</v>
       </c>
-      <c r="M86" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.1937962929788011</v>
       </c>
@@ -6135,11 +5816,8 @@
       <c r="L87" t="s">
         <v>136</v>
       </c>
-      <c r="M87" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.5754131211844351</v>
       </c>
@@ -6173,11 +5851,8 @@
       <c r="L88" t="s">
         <v>138</v>
       </c>
-      <c r="M88" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.494229368537932</v>
       </c>
@@ -6211,11 +5886,8 @@
       <c r="L89" t="s">
         <v>138</v>
       </c>
-      <c r="M89" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.324084952149557</v>
       </c>
@@ -6252,11 +5924,8 @@
       <c r="L90" t="s">
         <v>141</v>
       </c>
-      <c r="M90" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.55405392280384846</v>
       </c>
@@ -6290,11 +5959,8 @@
       <c r="L91" t="s">
         <v>143</v>
       </c>
-      <c r="M91" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-1.0423632943053991</v>
       </c>
@@ -6328,11 +5994,8 @@
       <c r="L92" t="s">
         <v>143</v>
       </c>
-      <c r="M92" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-5.5012844449605407E-2</v>
       </c>
@@ -6366,11 +6029,8 @@
       <c r="L93" t="s">
         <v>143</v>
       </c>
-      <c r="M93" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.93142383499082837</v>
       </c>
@@ -6404,11 +6064,8 @@
       <c r="L94" t="s">
         <v>147</v>
       </c>
-      <c r="M94" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.38504281562284542</v>
       </c>
@@ -6442,11 +6099,8 @@
       <c r="L95" t="s">
         <v>149</v>
       </c>
-      <c r="M95" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.17573275204863731</v>
       </c>
@@ -6480,11 +6134,8 @@
       <c r="L96" t="s">
         <v>151</v>
       </c>
-      <c r="M96" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.30725991981330553</v>
       </c>
@@ -6518,11 +6169,8 @@
       <c r="L97" t="s">
         <v>151</v>
       </c>
-      <c r="M97" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.16100044185829529</v>
       </c>
@@ -6556,11 +6204,8 @@
       <c r="L98" t="s">
         <v>154</v>
       </c>
-      <c r="M98" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.13947080174399701</v>
       </c>
@@ -6594,11 +6239,8 @@
       <c r="L99" t="s">
         <v>156</v>
       </c>
-      <c r="M99" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.57189330047299158</v>
       </c>
@@ -6632,11 +6274,8 @@
       <c r="L100" t="s">
         <v>156</v>
       </c>
-      <c r="M100" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.186929646816743</v>
       </c>
@@ -6670,11 +6309,8 @@
       <c r="L101" t="s">
         <v>156</v>
       </c>
-      <c r="M101" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.78408923245627327</v>
       </c>
@@ -6708,11 +6344,8 @@
       <c r="L102" t="s">
         <v>156</v>
       </c>
-      <c r="M102" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-1.1881850767283499</v>
       </c>
@@ -6746,11 +6379,8 @@
       <c r="L103" t="s">
         <v>156</v>
       </c>
-      <c r="M103" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.2167974536626309</v>
       </c>
@@ -6784,11 +6414,8 @@
       <c r="L104" t="s">
         <v>156</v>
       </c>
-      <c r="M104" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.3783323291865002</v>
       </c>
@@ -6822,11 +6449,8 @@
       <c r="L105" t="s">
         <v>156</v>
       </c>
-      <c r="M105" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-0.47513692486779768</v>
       </c>
@@ -6860,11 +6484,8 @@
       <c r="L106" t="s">
         <v>156</v>
       </c>
-      <c r="M106" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-0.45132419221818182</v>
       </c>
@@ -6898,11 +6519,8 @@
       <c r="L107" t="s">
         <v>156</v>
       </c>
-      <c r="M107" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-1.17312069275836</v>
       </c>
@@ -6936,11 +6554,8 @@
       <c r="L108" t="s">
         <v>166</v>
       </c>
-      <c r="M108" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1.8976203007781911E-2</v>
       </c>
@@ -6974,11 +6589,8 @@
       <c r="L109" t="s">
         <v>166</v>
       </c>
-      <c r="M109" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-0.62554104481733253</v>
       </c>
@@ -7012,11 +6624,8 @@
       <c r="L110" t="s">
         <v>166</v>
       </c>
-      <c r="M110" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.19142104430739859</v>
       </c>
@@ -7050,11 +6659,8 @@
       <c r="L111" t="s">
         <v>166</v>
       </c>
-      <c r="M111" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.39479317798412111</v>
       </c>
@@ -7088,11 +6694,8 @@
       <c r="L112" t="s">
         <v>171</v>
       </c>
-      <c r="M112" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.1846891480668795</v>
       </c>
@@ -7126,11 +6729,8 @@
       <c r="L113" t="s">
         <v>171</v>
       </c>
-      <c r="M113" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-1.1797387269856521</v>
       </c>
@@ -7164,11 +6764,8 @@
       <c r="L114" t="s">
         <v>174</v>
       </c>
-      <c r="M114" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-0.57575431555863488</v>
       </c>
@@ -7202,11 +6799,8 @@
       <c r="L115" t="s">
         <v>174</v>
       </c>
-      <c r="M115" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-0.81535799950601107</v>
       </c>
@@ -7240,11 +6834,8 @@
       <c r="L116" t="s">
         <v>177</v>
       </c>
-      <c r="M116" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-0.56236428609447608</v>
       </c>
@@ -7278,11 +6869,8 @@
       <c r="L117" t="s">
         <v>179</v>
       </c>
-      <c r="M117" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-0.3303566566593184</v>
       </c>
@@ -7316,11 +6904,8 @@
       <c r="L118" t="s">
         <v>179</v>
       </c>
-      <c r="M118" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2.0167186930854868</v>
       </c>
@@ -7354,11 +6939,8 @@
       <c r="L119" t="s">
         <v>179</v>
       </c>
-      <c r="M119" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3.332629553553335</v>
       </c>
@@ -7395,11 +6977,8 @@
       <c r="L120" t="s">
         <v>183</v>
       </c>
-      <c r="M120" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3.107773365759825E-2</v>
       </c>
@@ -7433,11 +7012,8 @@
       <c r="L121" t="s">
         <v>185</v>
       </c>
-      <c r="M121" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.42575402319557842</v>
       </c>
@@ -7471,11 +7047,8 @@
       <c r="L122" t="s">
         <v>187</v>
       </c>
-      <c r="M122" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.0106066529856379</v>
       </c>
@@ -7509,11 +7082,8 @@
       <c r="L123" t="s">
         <v>187</v>
       </c>
-      <c r="M123" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-0.91203696865359374</v>
       </c>
@@ -7547,11 +7117,8 @@
       <c r="L124" t="s">
         <v>190</v>
       </c>
-      <c r="M124" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.65972344711462283</v>
       </c>
@@ -7585,11 +7152,8 @@
       <c r="L125" t="s">
         <v>190</v>
       </c>
-      <c r="M125" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.41350537804834891</v>
       </c>
@@ -7623,11 +7187,8 @@
       <c r="L126" t="s">
         <v>190</v>
       </c>
-      <c r="M126" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-0.96357964762755166</v>
       </c>
@@ -7661,11 +7222,8 @@
       <c r="L127" t="s">
         <v>190</v>
       </c>
-      <c r="M127" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.1429272601895723</v>
       </c>
@@ -7699,11 +7257,8 @@
       <c r="L128" t="s">
         <v>190</v>
       </c>
-      <c r="M128" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.1889321468319598</v>
       </c>
@@ -7737,11 +7292,8 @@
       <c r="L129" t="s">
         <v>190</v>
       </c>
-      <c r="M129" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-1.965674470201731</v>
       </c>
@@ -7775,11 +7327,8 @@
       <c r="L130" t="s">
         <v>197</v>
       </c>
-      <c r="M130" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-1.0478154304150751</v>
       </c>
@@ -7813,11 +7362,8 @@
       <c r="L131" t="s">
         <v>199</v>
       </c>
-      <c r="M131" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-1.2991872735861909</v>
       </c>
@@ -7851,11 +7397,8 @@
       <c r="L132" t="s">
         <v>201</v>
       </c>
-      <c r="M132" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-0.99634811299356818</v>
       </c>
@@ -7889,11 +7432,8 @@
       <c r="L133" t="s">
         <v>201</v>
       </c>
-      <c r="M133" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.72692538048535338</v>
       </c>
@@ -7927,11 +7467,8 @@
       <c r="L134" t="s">
         <v>204</v>
       </c>
-      <c r="M134" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4.2252013165128064</v>
       </c>
@@ -7965,11 +7502,8 @@
       <c r="L135" t="s">
         <v>206</v>
       </c>
-      <c r="M135" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4.123497533490716</v>
       </c>
@@ -8003,11 +7537,8 @@
       <c r="L136" t="s">
         <v>206</v>
       </c>
-      <c r="M136" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4.0925101828295238</v>
       </c>
@@ -8041,11 +7572,8 @@
       <c r="L137" t="s">
         <v>206</v>
       </c>
-      <c r="M137" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4.2197540454403608</v>
       </c>
@@ -8079,11 +7607,8 @@
       <c r="L138" t="s">
         <v>206</v>
       </c>
-      <c r="M138" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4.0655099006780384</v>
       </c>
@@ -8117,11 +7642,8 @@
       <c r="L139" t="s">
         <v>206</v>
       </c>
-      <c r="M139" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4.4328955263097756</v>
       </c>
@@ -8155,11 +7677,8 @@
       <c r="L140" t="s">
         <v>206</v>
       </c>
-      <c r="M140" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2.74217772516239</v>
       </c>
@@ -8193,11 +7712,8 @@
       <c r="L141" t="s">
         <v>213</v>
       </c>
-      <c r="M141" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2.798279993304273</v>
       </c>
@@ -8231,11 +7747,8 @@
       <c r="L142" t="s">
         <v>213</v>
       </c>
-      <c r="M142" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.27738009958904719</v>
       </c>
@@ -8269,11 +7782,8 @@
       <c r="L143" t="s">
         <v>216</v>
       </c>
-      <c r="M143" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-0.80295878671811849</v>
       </c>
@@ -8307,11 +7817,8 @@
       <c r="L144" t="s">
         <v>218</v>
       </c>
-      <c r="M144" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>-0.46788675584482559</v>
       </c>
@@ -8345,11 +7852,8 @@
       <c r="L145" t="s">
         <v>218</v>
       </c>
-      <c r="M145" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>-1.110041842942779</v>
       </c>
@@ -8383,11 +7887,8 @@
       <c r="L146" t="s">
         <v>218</v>
       </c>
-      <c r="M146" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>-1.127152908729069</v>
       </c>
@@ -8421,11 +7922,8 @@
       <c r="L147" t="s">
         <v>218</v>
       </c>
-      <c r="M147" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2.1379533792737302</v>
       </c>
@@ -8462,11 +7960,8 @@
       <c r="L148" t="s">
         <v>223</v>
       </c>
-      <c r="M148" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2.6707710108495459</v>
       </c>
@@ -8503,11 +7998,8 @@
       <c r="L149" t="s">
         <v>223</v>
       </c>
-      <c r="M149" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>-1.2416773914840999</v>
       </c>
@@ -8541,11 +8033,8 @@
       <c r="L150" t="s">
         <v>226</v>
       </c>
-      <c r="M150" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>-0.88042768112218539</v>
       </c>
@@ -8579,11 +8068,8 @@
       <c r="L151" t="s">
         <v>226</v>
       </c>
-      <c r="M151" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.5908299972694705</v>
       </c>
@@ -8617,11 +8103,8 @@
       <c r="L152" t="s">
         <v>229</v>
       </c>
-      <c r="M152" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>-1.522944956162918</v>
       </c>
@@ -8655,11 +8138,8 @@
       <c r="L153" t="s">
         <v>229</v>
       </c>
-      <c r="M153" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>-0.40297476353355971</v>
       </c>
@@ -8693,11 +8173,8 @@
       <c r="L154" t="s">
         <v>232</v>
       </c>
-      <c r="M154" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.26639468678340822</v>
       </c>
@@ -8731,11 +8208,8 @@
       <c r="L155" t="s">
         <v>234</v>
       </c>
-      <c r="M155" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.576913259839231</v>
       </c>
@@ -8769,11 +8243,8 @@
       <c r="L156" t="s">
         <v>234</v>
       </c>
-      <c r="M156" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>-0.75076946444728521</v>
       </c>
@@ -8807,11 +8278,8 @@
       <c r="L157" t="s">
         <v>237</v>
       </c>
-      <c r="M157" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4.9725681141365163E-2</v>
       </c>
@@ -8845,11 +8313,8 @@
       <c r="L158" t="s">
         <v>237</v>
       </c>
-      <c r="M158" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9.2724146346270617E-2</v>
       </c>
@@ -8883,11 +8348,8 @@
       <c r="L159" t="s">
         <v>237</v>
       </c>
-      <c r="M159" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.330845613070762</v>
       </c>
@@ -8921,11 +8383,8 @@
       <c r="L160" t="s">
         <v>241</v>
       </c>
-      <c r="M160" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.50729970408089631</v>
       </c>
@@ -8959,11 +8418,8 @@
       <c r="L161" t="s">
         <v>243</v>
       </c>
-      <c r="M161" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>-1.3462748206738671</v>
       </c>
@@ -8997,11 +8453,8 @@
       <c r="L162" t="s">
         <v>245</v>
       </c>
-      <c r="M162" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>-1.0483252809001959</v>
       </c>
@@ -9035,11 +8488,8 @@
       <c r="L163" t="s">
         <v>245</v>
       </c>
-      <c r="M163" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>-0.3860121310157662</v>
       </c>
@@ -9073,11 +8523,8 @@
       <c r="L164" t="s">
         <v>245</v>
       </c>
-      <c r="M164" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>-1.028704645500943</v>
       </c>
@@ -9111,11 +8558,8 @@
       <c r="L165" t="s">
         <v>245</v>
       </c>
-      <c r="M165" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>-1.2595119297198401</v>
       </c>
@@ -9149,11 +8593,8 @@
       <c r="L166" t="s">
         <v>245</v>
       </c>
-      <c r="M166" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>-0.89453113451797572</v>
       </c>
@@ -9187,11 +8628,8 @@
       <c r="L167" t="s">
         <v>245</v>
       </c>
-      <c r="M167" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>-0.39897099959123272</v>
       </c>
@@ -9225,11 +8663,8 @@
       <c r="L168" t="s">
         <v>245</v>
       </c>
-      <c r="M168" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.39453403360142142</v>
       </c>
@@ -9263,11 +8698,8 @@
       <c r="L169" t="s">
         <v>253</v>
       </c>
-      <c r="M169" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0.1516559948020553</v>
       </c>
@@ -9301,11 +8733,8 @@
       <c r="L170" t="s">
         <v>253</v>
       </c>
-      <c r="M170" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>-0.42940660575254558</v>
       </c>
@@ -9339,11 +8768,8 @@
       <c r="L171" t="s">
         <v>253</v>
       </c>
-      <c r="M171" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.17480869686744649</v>
       </c>
@@ -9377,11 +8803,8 @@
       <c r="L172" t="s">
         <v>253</v>
       </c>
-      <c r="M172" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>-0.47832122182345449</v>
       </c>
@@ -9415,11 +8838,8 @@
       <c r="L173" t="s">
         <v>253</v>
       </c>
-      <c r="M173" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>-0.88314212476360821</v>
       </c>
@@ -9453,11 +8873,8 @@
       <c r="L174" t="s">
         <v>253</v>
       </c>
-      <c r="M174" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.70313593689461285</v>
       </c>
@@ -9491,11 +8908,8 @@
       <c r="L175" t="s">
         <v>260</v>
       </c>
-      <c r="M175" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.17824455451943</v>
       </c>
@@ -9529,11 +8943,8 @@
       <c r="L176" t="s">
         <v>262</v>
       </c>
-      <c r="M176" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>-5.140635333592309E-2</v>
       </c>
@@ -9567,11 +8978,8 @@
       <c r="L177" t="s">
         <v>262</v>
       </c>
-      <c r="M177" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.55502604571049696</v>
       </c>
@@ -9605,11 +9013,8 @@
       <c r="L178" t="s">
         <v>262</v>
       </c>
-      <c r="M178" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.55443469716741012</v>
       </c>
@@ -9643,11 +9048,8 @@
       <c r="L179" t="s">
         <v>266</v>
       </c>
-      <c r="M179" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.1913489617238541</v>
       </c>
@@ -9681,11 +9083,8 @@
       <c r="L180" t="s">
         <v>268</v>
       </c>
-      <c r="M180" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-0.41371902192435361</v>
       </c>
@@ -9719,11 +9118,8 @@
       <c r="L181" t="s">
         <v>268</v>
       </c>
-      <c r="M181" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>-0.76816750196701311</v>
       </c>
@@ -9757,11 +9153,8 @@
       <c r="L182" t="s">
         <v>271</v>
       </c>
-      <c r="M182" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-0.70706692191164866</v>
       </c>
@@ -9795,11 +9188,8 @@
       <c r="L183" t="s">
         <v>271</v>
       </c>
-      <c r="M183" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-0.15833130888335509</v>
       </c>
@@ -9833,11 +9223,8 @@
       <c r="L184" t="s">
         <v>271</v>
       </c>
-      <c r="M184" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>-0.35558787313236029</v>
       </c>
@@ -9871,11 +9258,8 @@
       <c r="L185" t="s">
         <v>271</v>
       </c>
-      <c r="M185" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.590496779004809</v>
       </c>
@@ -9909,11 +9293,8 @@
       <c r="L186" t="s">
         <v>276</v>
       </c>
-      <c r="M186" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.19655533485972951</v>
       </c>
@@ -9947,11 +9328,8 @@
       <c r="L187" t="s">
         <v>278</v>
       </c>
-      <c r="M187" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>-0.42527050660835808</v>
       </c>
@@ -9985,11 +9363,8 @@
       <c r="L188" t="s">
         <v>278</v>
       </c>
-      <c r="M188" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>-1.4165008615011081</v>
       </c>
@@ -10023,11 +9398,8 @@
       <c r="L189" t="s">
         <v>278</v>
       </c>
-      <c r="M189" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>-1.2364160574522061</v>
       </c>
@@ -10061,11 +9433,8 @@
       <c r="L190" t="s">
         <v>278</v>
       </c>
-      <c r="M190" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1.070571115939021</v>
       </c>
@@ -10099,11 +9468,8 @@
       <c r="L191" t="s">
         <v>283</v>
       </c>
-      <c r="M191" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>-0.59081520994399728</v>
       </c>
@@ -10137,11 +9503,8 @@
       <c r="L192" t="s">
         <v>285</v>
       </c>
-      <c r="M192" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>-0.46417369372263978</v>
       </c>
@@ -10175,11 +9538,8 @@
       <c r="L193" t="s">
         <v>287</v>
       </c>
-      <c r="M193" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>-1.3490162269686421</v>
       </c>
@@ -10213,11 +9573,8 @@
       <c r="L194" t="s">
         <v>289</v>
       </c>
-      <c r="M194" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>-1.0030914890394389</v>
       </c>
@@ -10251,11 +9608,8 @@
       <c r="L195" t="s">
         <v>289</v>
       </c>
-      <c r="M195" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.33499372048733361</v>
       </c>
@@ -10289,11 +9643,8 @@
       <c r="L196" t="s">
         <v>289</v>
       </c>
-      <c r="M196" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>-0.29775199899241611</v>
       </c>
@@ -10327,11 +9678,8 @@
       <c r="L197" t="s">
         <v>289</v>
       </c>
-      <c r="M197" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>-0.99906176186246898</v>
       </c>
@@ -10365,11 +9713,8 @@
       <c r="L198" t="s">
         <v>289</v>
       </c>
-      <c r="M198" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>-0.47896888065532423</v>
       </c>
@@ -10403,11 +9748,8 @@
       <c r="L199" t="s">
         <v>289</v>
       </c>
-      <c r="M199" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-0.47265972215660818</v>
       </c>
@@ -10441,11 +9783,8 @@
       <c r="L200" t="s">
         <v>296</v>
       </c>
-      <c r="M200" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>-1.153310020296942</v>
       </c>
@@ -10479,11 +9818,8 @@
       <c r="L201" t="s">
         <v>296</v>
       </c>
-      <c r="M201" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>-1.0123047551111179</v>
       </c>
@@ -10517,11 +9853,8 @@
       <c r="L202" t="s">
         <v>299</v>
       </c>
-      <c r="M202" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>-0.43718190931645862</v>
       </c>
@@ -10555,11 +9888,8 @@
       <c r="L203" t="s">
         <v>299</v>
       </c>
-      <c r="M203" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>-0.15388836873539019</v>
       </c>
@@ -10593,11 +9923,8 @@
       <c r="L204" t="s">
         <v>299</v>
       </c>
-      <c r="M204" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>-3.5887597965498293E-2</v>
       </c>
@@ -10631,11 +9958,8 @@
       <c r="L205" t="s">
         <v>303</v>
       </c>
-      <c r="M205" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>-0.56622553856448965</v>
       </c>
@@ -10669,11 +9993,8 @@
       <c r="L206" t="s">
         <v>305</v>
       </c>
-      <c r="M206" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>-0.72269127082586337</v>
       </c>
@@ -10707,11 +10028,8 @@
       <c r="L207" t="s">
         <v>305</v>
       </c>
-      <c r="M207" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>-0.612855725002587</v>
       </c>
@@ -10745,11 +10063,8 @@
       <c r="L208" t="s">
         <v>305</v>
       </c>
-      <c r="M208" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5.296493165440945E-2</v>
       </c>
@@ -10783,11 +10098,8 @@
       <c r="L209" t="s">
         <v>305</v>
       </c>
-      <c r="M209" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>-0.96270411996823135</v>
       </c>
@@ -10821,11 +10133,8 @@
       <c r="L210" t="s">
         <v>305</v>
       </c>
-      <c r="M210" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2.3616616895833338</v>
       </c>
@@ -10862,11 +10171,8 @@
       <c r="L211" t="s">
         <v>305</v>
       </c>
-      <c r="M211" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.1009819392078239</v>
       </c>
@@ -10900,11 +10206,8 @@
       <c r="L212" t="s">
         <v>305</v>
       </c>
-      <c r="M212" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>-1.376427698874602</v>
       </c>
@@ -10938,11 +10241,8 @@
       <c r="L213" t="s">
         <v>305</v>
       </c>
-      <c r="M213" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>-0.17607330015564909</v>
       </c>
@@ -10976,11 +10276,8 @@
       <c r="L214" t="s">
         <v>305</v>
       </c>
-      <c r="M214" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>-1.5204615142707509</v>
       </c>
@@ -11014,11 +10311,8 @@
       <c r="L215" t="s">
         <v>305</v>
       </c>
-      <c r="M215" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>-0.69696748662045849</v>
       </c>
@@ -11052,11 +10346,8 @@
       <c r="L216" t="s">
         <v>316</v>
       </c>
-      <c r="M216" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>-0.3494411619699736</v>
       </c>
@@ -11090,11 +10381,8 @@
       <c r="L217" t="s">
         <v>316</v>
       </c>
-      <c r="M217" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0.1897718205255873</v>
       </c>
@@ -11128,11 +10416,8 @@
       <c r="L218" t="s">
         <v>316</v>
       </c>
-      <c r="M218" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-0.69459171258371255</v>
       </c>
@@ -11166,11 +10451,8 @@
       <c r="L219" t="s">
         <v>316</v>
       </c>
-      <c r="M219" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-0.49171308193295571</v>
       </c>
@@ -11204,11 +10486,8 @@
       <c r="L220" t="s">
         <v>316</v>
       </c>
-      <c r="M220" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-1.493517077598109</v>
       </c>
@@ -11242,11 +10521,8 @@
       <c r="L221" t="s">
         <v>322</v>
       </c>
-      <c r="M221" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-0.54436199929931872</v>
       </c>
@@ -11280,11 +10556,8 @@
       <c r="L222" t="s">
         <v>322</v>
       </c>
-      <c r="M222" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1.4663529121868959</v>
       </c>
@@ -11318,11 +10591,8 @@
       <c r="L223" t="s">
         <v>325</v>
       </c>
-      <c r="M223" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8.9428261901139297E-2</v>
       </c>
@@ -11356,11 +10626,8 @@
       <c r="L224" t="s">
         <v>327</v>
       </c>
-      <c r="M224" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>-1.306776299302381</v>
       </c>
@@ -11394,11 +10661,8 @@
       <c r="L225" t="s">
         <v>327</v>
       </c>
-      <c r="M225" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-0.58027349239047699</v>
       </c>
@@ -11432,11 +10696,8 @@
       <c r="L226" t="s">
         <v>327</v>
       </c>
-      <c r="M226" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>7.944566482467369E-2</v>
       </c>
@@ -11470,11 +10731,8 @@
       <c r="L227" t="s">
         <v>327</v>
       </c>
-      <c r="M227" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-1.9610771297879399</v>
       </c>
@@ -11508,11 +10766,8 @@
       <c r="L228" t="s">
         <v>332</v>
       </c>
-      <c r="M228" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-0.74906193561729295</v>
       </c>
@@ -11546,11 +10801,8 @@
       <c r="L229" t="s">
         <v>334</v>
       </c>
-      <c r="M229" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-0.60716660447161985</v>
       </c>
@@ -11584,11 +10836,8 @@
       <c r="L230" t="s">
         <v>334</v>
       </c>
-      <c r="M230" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2.1351918585483642E-2</v>
       </c>
@@ -11622,11 +10871,8 @@
       <c r="L231" t="s">
         <v>334</v>
       </c>
-      <c r="M231" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1.9418884713204221</v>
       </c>
@@ -11660,11 +10906,8 @@
       <c r="L232" t="s">
         <v>334</v>
       </c>
-      <c r="M232" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2.8779333913667471</v>
       </c>
@@ -11701,11 +10944,8 @@
       <c r="L233" t="s">
         <v>339</v>
       </c>
-      <c r="M233" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3.5733032312680608</v>
       </c>
@@ -11739,11 +10979,8 @@
       <c r="L234" t="s">
         <v>339</v>
       </c>
-      <c r="M234" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1.3089671524536091</v>
       </c>
@@ -11777,11 +11014,8 @@
       <c r="L235" t="s">
         <v>339</v>
       </c>
-      <c r="M235" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0.54709345008379517</v>
       </c>
@@ -11815,11 +11049,8 @@
       <c r="L236" t="s">
         <v>339</v>
       </c>
-      <c r="M236" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0.35716676578245199</v>
       </c>
@@ -11853,11 +11084,8 @@
       <c r="L237" t="s">
         <v>339</v>
       </c>
-      <c r="M237" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2.0268010849441569</v>
       </c>
@@ -11891,11 +11119,8 @@
       <c r="L238" t="s">
         <v>339</v>
       </c>
-      <c r="M238" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3.3843072518420909</v>
       </c>
@@ -11929,11 +11154,8 @@
       <c r="L239" t="s">
         <v>339</v>
       </c>
-      <c r="M239" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-9.2849791108249327E-2</v>
       </c>
@@ -11967,11 +11189,8 @@
       <c r="L240" t="s">
         <v>339</v>
       </c>
-      <c r="M240" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.289229144433784</v>
       </c>
@@ -12005,11 +11224,8 @@
       <c r="L241" t="s">
         <v>339</v>
       </c>
-      <c r="M241" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2.593074325004209</v>
       </c>
@@ -12043,11 +11259,8 @@
       <c r="L242" t="s">
         <v>339</v>
       </c>
-      <c r="M242" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0.3670220637459895</v>
       </c>
@@ -12081,11 +11294,8 @@
       <c r="L243" t="s">
         <v>339</v>
       </c>
-      <c r="M243" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2.9364558065697319</v>
       </c>
@@ -12122,11 +11332,8 @@
       <c r="L244" t="s">
         <v>351</v>
       </c>
-      <c r="M244" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-0.92668763670700849</v>
       </c>
@@ -12160,11 +11367,8 @@
       <c r="L245" t="s">
         <v>353</v>
       </c>
-      <c r="M245" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-0.79057063183434717</v>
       </c>
@@ -12198,11 +11402,8 @@
       <c r="L246" t="s">
         <v>353</v>
       </c>
-      <c r="M246" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-0.53068918499321471</v>
       </c>
@@ -12236,11 +11437,8 @@
       <c r="L247" t="s">
         <v>353</v>
       </c>
-      <c r="M247" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1.374071237794987E-2</v>
       </c>
@@ -12274,11 +11472,8 @@
       <c r="L248" t="s">
         <v>353</v>
       </c>
-      <c r="M248" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-0.47828480691401948</v>
       </c>
@@ -12312,11 +11507,8 @@
       <c r="L249" t="s">
         <v>358</v>
       </c>
-      <c r="M249" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.29170628980425239</v>
       </c>
@@ -12350,11 +11542,8 @@
       <c r="L250" t="s">
         <v>358</v>
       </c>
-      <c r="M250" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.43576966464992511</v>
       </c>
@@ -12388,11 +11577,8 @@
       <c r="L251" t="s">
         <v>361</v>
       </c>
-      <c r="M251" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0.99121071249556059</v>
       </c>
@@ -12426,11 +11612,8 @@
       <c r="L252" t="s">
         <v>361</v>
       </c>
-      <c r="M252" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-0.2633710773724891</v>
       </c>
@@ -12464,11 +11647,8 @@
       <c r="L253" t="s">
         <v>361</v>
       </c>
-      <c r="M253" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0.50078514956995424</v>
       </c>
@@ -12502,11 +11682,8 @@
       <c r="L254" t="s">
         <v>361</v>
       </c>
-      <c r="M254" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-1.0962222271950131</v>
       </c>
@@ -12540,11 +11717,8 @@
       <c r="L255" t="s">
         <v>361</v>
       </c>
-      <c r="M255" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-0.22845510092284471</v>
       </c>
@@ -12578,11 +11752,8 @@
       <c r="L256" t="s">
         <v>361</v>
       </c>
-      <c r="M256" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-0.55805293574278503</v>
       </c>
@@ -12616,11 +11787,8 @@
       <c r="L257" t="s">
         <v>368</v>
       </c>
-      <c r="M257" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-0.55269402615221341</v>
       </c>
@@ -12654,11 +11822,8 @@
       <c r="L258" t="s">
         <v>368</v>
       </c>
-      <c r="M258" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-0.70654973682959954</v>
       </c>
@@ -12692,11 +11857,8 @@
       <c r="L259" t="s">
         <v>368</v>
       </c>
-      <c r="M259" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-0.34767569714038082</v>
       </c>
@@ -12730,11 +11892,8 @@
       <c r="L260" t="s">
         <v>368</v>
       </c>
-      <c r="M260" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-0.23165570722172971</v>
       </c>
@@ -12768,11 +11927,8 @@
       <c r="L261" t="s">
         <v>373</v>
       </c>
-      <c r="M261" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-0.40472871625713502</v>
       </c>
@@ -12806,11 +11962,8 @@
       <c r="L262" t="s">
         <v>373</v>
       </c>
-      <c r="M262" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-0.59525724350267561</v>
       </c>
@@ -12844,11 +11997,8 @@
       <c r="L263" t="s">
         <v>373</v>
       </c>
-      <c r="M263" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-0.29982190449163298</v>
       </c>
@@ -12882,11 +12032,8 @@
       <c r="L264" t="s">
         <v>373</v>
       </c>
-      <c r="M264" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-0.46952428720802558</v>
       </c>
@@ -12920,11 +12067,8 @@
       <c r="L265" t="s">
         <v>373</v>
       </c>
-      <c r="M265" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-0.69395891177709457</v>
       </c>
@@ -12958,11 +12102,8 @@
       <c r="L266" t="s">
         <v>373</v>
       </c>
-      <c r="M266" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>8.8867928982173786E-2</v>
       </c>
@@ -12996,11 +12137,8 @@
       <c r="L267" t="s">
         <v>380</v>
       </c>
-      <c r="M267" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-0.20113542205232859</v>
       </c>
@@ -13034,11 +12172,8 @@
       <c r="L268" t="s">
         <v>380</v>
       </c>
-      <c r="M268" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0.96168134615077305</v>
       </c>
@@ -13072,11 +12207,8 @@
       <c r="L269" t="s">
         <v>383</v>
       </c>
-      <c r="M269" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1.3799441444880209</v>
       </c>
@@ -13110,11 +12242,8 @@
       <c r="L270" t="s">
         <v>383</v>
       </c>
-      <c r="M270" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-0.77211740904306747</v>
       </c>
@@ -13148,11 +12277,8 @@
       <c r="L271" t="s">
         <v>386</v>
       </c>
-      <c r="M271" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-1.0062942471352501</v>
       </c>
@@ -13186,11 +12312,8 @@
       <c r="L272" t="s">
         <v>386</v>
       </c>
-      <c r="M272" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-0.65636188710529575</v>
       </c>
@@ -13224,11 +12347,8 @@
       <c r="L273" t="s">
         <v>386</v>
       </c>
-      <c r="M273" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-1.046435371640595</v>
       </c>
@@ -13262,11 +12382,8 @@
       <c r="L274" t="s">
         <v>386</v>
       </c>
-      <c r="M274" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-0.47316063038956468</v>
       </c>
@@ -13300,11 +12417,8 @@
       <c r="L275" t="s">
         <v>386</v>
       </c>
-      <c r="M275" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-1.022622452488096</v>
       </c>
@@ -13338,11 +12452,8 @@
       <c r="L276" t="s">
         <v>386</v>
       </c>
-      <c r="M276" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-1.0655717287119799</v>
       </c>
@@ -13376,11 +12487,8 @@
       <c r="L277" t="s">
         <v>386</v>
       </c>
-      <c r="M277" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-1.018429181678149</v>
       </c>
@@ -13414,11 +12522,8 @@
       <c r="L278" t="s">
         <v>386</v>
       </c>
-      <c r="M278" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.53126476741691786</v>
       </c>
@@ -13452,11 +12557,8 @@
       <c r="L279" t="s">
         <v>395</v>
       </c>
-      <c r="M279" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.90135178889299894</v>
       </c>
@@ -13490,11 +12592,8 @@
       <c r="L280" t="s">
         <v>397</v>
       </c>
-      <c r="M280" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-2.4149677172109162E-2</v>
       </c>
@@ -13528,11 +12627,8 @@
       <c r="L281" t="s">
         <v>399</v>
       </c>
-      <c r="M281" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-8.4326547728532653E-2</v>
       </c>
@@ -13566,11 +12662,8 @@
       <c r="L282" t="s">
         <v>399</v>
       </c>
-      <c r="M282" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.0244189255649541</v>
       </c>
@@ -13604,11 +12697,8 @@
       <c r="L283" t="s">
         <v>399</v>
       </c>
-      <c r="M283" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.204496394516493</v>
       </c>
@@ -13642,11 +12732,8 @@
       <c r="L284" t="s">
         <v>403</v>
       </c>
-      <c r="M284" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3.5483259413429331</v>
       </c>
@@ -13680,11 +12767,8 @@
       <c r="L285" t="s">
         <v>403</v>
       </c>
-      <c r="M285" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.7408187985395509</v>
       </c>
@@ -13718,11 +12802,8 @@
       <c r="L286" t="s">
         <v>403</v>
       </c>
-      <c r="M286" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.9830326154930551</v>
       </c>
@@ -13756,11 +12837,8 @@
       <c r="L287" t="s">
         <v>403</v>
       </c>
-      <c r="M287" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3.7721605272383818</v>
       </c>
@@ -13797,11 +12875,8 @@
       <c r="L288" t="s">
         <v>403</v>
       </c>
-      <c r="M288" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3.4200467852282919</v>
       </c>
@@ -13838,11 +12913,8 @@
       <c r="L289" t="s">
         <v>403</v>
       </c>
-      <c r="M289" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3.7214332207395411</v>
       </c>
@@ -13879,11 +12951,8 @@
       <c r="L290" t="s">
         <v>403</v>
       </c>
-      <c r="M290" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3.876990983312167</v>
       </c>
@@ -13920,11 +12989,8 @@
       <c r="L291" t="s">
         <v>411</v>
       </c>
-      <c r="M291" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-0.30472616375036687</v>
       </c>
@@ -13958,11 +13024,8 @@
       <c r="L292" t="s">
         <v>413</v>
       </c>
-      <c r="M292" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-0.96387663965144466</v>
       </c>
@@ -13996,11 +13059,8 @@
       <c r="L293" t="s">
         <v>413</v>
       </c>
-      <c r="M293" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-0.95081026077639552</v>
       </c>
@@ -14034,11 +13094,8 @@
       <c r="L294" t="s">
         <v>416</v>
       </c>
-      <c r="M294" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-0.82884595535442196</v>
       </c>
@@ -14072,11 +13129,8 @@
       <c r="L295" t="s">
         <v>416</v>
       </c>
-      <c r="M295" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.34508672721471978</v>
       </c>
@@ -14110,11 +13164,8 @@
       <c r="L296" t="s">
         <v>416</v>
       </c>
-      <c r="M296" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>-0.31881942500718952</v>
       </c>
@@ -14148,11 +13199,8 @@
       <c r="L297" t="s">
         <v>420</v>
       </c>
-      <c r="M297" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-0.77093660373056205</v>
       </c>
@@ -14186,11 +13234,8 @@
       <c r="L298" t="s">
         <v>422</v>
       </c>
-      <c r="M298" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-0.35229098431147471</v>
       </c>
@@ -14224,11 +13269,8 @@
       <c r="L299" t="s">
         <v>422</v>
       </c>
-      <c r="M299" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-0.51100716066267282</v>
       </c>
@@ -14262,11 +13304,8 @@
       <c r="L300" t="s">
         <v>425</v>
       </c>
-      <c r="M300" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-0.87919740462463492</v>
       </c>
@@ -14300,11 +13339,8 @@
       <c r="L301" t="s">
         <v>427</v>
       </c>
-      <c r="M301" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.54942032977150446</v>
       </c>
@@ -14338,11 +13374,8 @@
       <c r="L302" t="s">
         <v>427</v>
       </c>
-      <c r="M302" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.67101323528483814</v>
       </c>
@@ -14376,11 +13409,8 @@
       <c r="L303" t="s">
         <v>427</v>
       </c>
-      <c r="M303" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>-0.1437887121179689</v>
       </c>
@@ -14414,11 +13444,8 @@
       <c r="L304" t="s">
         <v>431</v>
       </c>
-      <c r="M304" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-0.8888210394172823</v>
       </c>
@@ -14452,11 +13479,8 @@
       <c r="L305" t="s">
         <v>433</v>
       </c>
-      <c r="M305" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-0.36030461887915349</v>
       </c>
@@ -14490,11 +13514,8 @@
       <c r="L306" t="s">
         <v>433</v>
       </c>
-      <c r="M306" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-0.22142275131100711</v>
       </c>
@@ -14528,11 +13549,8 @@
       <c r="L307" t="s">
         <v>436</v>
       </c>
-      <c r="M307" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-0.57374150040748439</v>
       </c>
@@ -14566,11 +13584,8 @@
       <c r="L308" t="s">
         <v>438</v>
       </c>
-      <c r="M308" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1.1241139192554119</v>
       </c>
@@ -14604,11 +13619,8 @@
       <c r="L309" t="s">
         <v>438</v>
       </c>
-      <c r="M309" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-0.83742289436717199</v>
       </c>
@@ -14642,11 +13654,8 @@
       <c r="L310" t="s">
         <v>441</v>
       </c>
-      <c r="M310" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0.58866595449272874</v>
       </c>
@@ -14680,11 +13689,8 @@
       <c r="L311" t="s">
         <v>441</v>
       </c>
-      <c r="M311" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2.5099220036088168</v>
       </c>
@@ -14721,11 +13727,8 @@
       <c r="L312" t="s">
         <v>441</v>
       </c>
-      <c r="M312" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-0.81819340584898725</v>
       </c>
@@ -14759,11 +13762,8 @@
       <c r="L313" t="s">
         <v>441</v>
       </c>
-      <c r="M313" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0.29187025416325052</v>
       </c>
@@ -14797,11 +13797,8 @@
       <c r="L314" t="s">
         <v>441</v>
       </c>
-      <c r="M314" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.7098052480562318</v>
       </c>
@@ -14838,11 +13835,8 @@
       <c r="L315" t="s">
         <v>441</v>
       </c>
-      <c r="M315" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-0.76788220012836561</v>
       </c>
@@ -14876,11 +13870,8 @@
       <c r="L316" t="s">
         <v>441</v>
       </c>
-      <c r="M316" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1.1983843477260681</v>
       </c>
@@ -14914,11 +13905,8 @@
       <c r="L317" t="s">
         <v>441</v>
       </c>
-      <c r="M317" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1.466206820560257</v>
       </c>
@@ -14952,11 +13940,8 @@
       <c r="L318" t="s">
         <v>441</v>
       </c>
-      <c r="M318" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1.35833210356062</v>
       </c>
@@ -14990,11 +13975,8 @@
       <c r="L319" t="s">
         <v>451</v>
       </c>
-      <c r="M319" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1.915863335114572</v>
       </c>
@@ -15028,11 +14010,8 @@
       <c r="L320" t="s">
         <v>451</v>
       </c>
-      <c r="M320" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0.8120531016817113</v>
       </c>
@@ -15066,11 +14045,8 @@
       <c r="L321" t="s">
         <v>454</v>
       </c>
-      <c r="M321" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>4.0858810109116579</v>
       </c>
@@ -15107,11 +14083,8 @@
       <c r="L322" t="s">
         <v>456</v>
       </c>
-      <c r="M322" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4.8310887317614331</v>
       </c>
@@ -15148,11 +14121,8 @@
       <c r="L323" t="s">
         <v>456</v>
       </c>
-      <c r="M323" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.4593697447969882</v>
       </c>
@@ -15189,11 +14159,8 @@
       <c r="L324" t="s">
         <v>456</v>
       </c>
-      <c r="M324" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4.5633479497646157</v>
       </c>
@@ -15230,11 +14197,8 @@
       <c r="L325" t="s">
         <v>456</v>
       </c>
-      <c r="M325" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.6095879784860472</v>
       </c>
@@ -15271,11 +14235,8 @@
       <c r="L326" t="s">
         <v>456</v>
       </c>
-      <c r="M326" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-0.87208326806469072</v>
       </c>
@@ -15309,11 +14270,8 @@
       <c r="L327" t="s">
         <v>462</v>
       </c>
-      <c r="M327" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-0.55129912381824475</v>
       </c>
@@ -15347,11 +14305,8 @@
       <c r="L328" t="s">
         <v>462</v>
       </c>
-      <c r="M328" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0.29800387930625649</v>
       </c>
@@ -15385,11 +14340,8 @@
       <c r="L329" t="s">
         <v>462</v>
       </c>
-      <c r="M329" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0.92461897379717517</v>
       </c>
@@ -15423,11 +14375,8 @@
       <c r="L330" t="s">
         <v>462</v>
       </c>
-      <c r="M330" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2.100895561921639</v>
       </c>
@@ -15464,11 +14413,8 @@
       <c r="L331" t="s">
         <v>467</v>
       </c>
-      <c r="M331" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2.336607422546658</v>
       </c>
@@ -15505,11 +14451,8 @@
       <c r="L332" t="s">
         <v>467</v>
       </c>
-      <c r="M332" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-8.5837185981068972E-2</v>
       </c>
@@ -15543,11 +14486,8 @@
       <c r="L333" t="s">
         <v>470</v>
       </c>
-      <c r="M333" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1.364032518289217</v>
       </c>
@@ -15581,11 +14521,8 @@
       <c r="L334" t="s">
         <v>472</v>
       </c>
-      <c r="M334" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0.72329956037991083</v>
       </c>
@@ -15619,11 +14556,8 @@
       <c r="L335" t="s">
         <v>474</v>
       </c>
-      <c r="M335" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-0.5770810454714862</v>
       </c>
@@ -15657,11 +14591,8 @@
       <c r="L336" t="s">
         <v>476</v>
       </c>
-      <c r="M336" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0.1177765014940285</v>
       </c>
@@ -15695,11 +14626,8 @@
       <c r="L337" t="s">
         <v>478</v>
       </c>
-      <c r="M337" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0.37015887833952221</v>
       </c>
@@ -15733,11 +14661,8 @@
       <c r="L338" t="s">
         <v>478</v>
       </c>
-      <c r="M338" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.50924826881385754</v>
       </c>
@@ -15771,11 +14696,8 @@
       <c r="L339" t="s">
         <v>481</v>
       </c>
-      <c r="M339" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1.841869198391914</v>
       </c>
@@ -15809,11 +14731,8 @@
       <c r="L340" t="s">
         <v>481</v>
       </c>
-      <c r="M340" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>-0.6494537259817994</v>
       </c>
@@ -15847,11 +14766,8 @@
       <c r="L341" t="s">
         <v>484</v>
       </c>
-      <c r="M341" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>4.8999769219335819E-3</v>
       </c>
@@ -15885,11 +14801,8 @@
       <c r="L342" t="s">
         <v>484</v>
       </c>
-      <c r="M342" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>-0.92461959263816784</v>
       </c>
@@ -15923,11 +14836,8 @@
       <c r="L343" t="s">
         <v>484</v>
       </c>
-      <c r="M343" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>-0.78259085682618446</v>
       </c>
@@ -15961,11 +14871,8 @@
       <c r="L344" t="s">
         <v>484</v>
       </c>
-      <c r="M344" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>-1.2866322234196821</v>
       </c>
@@ -15999,11 +14906,8 @@
       <c r="L345" t="s">
         <v>484</v>
       </c>
-      <c r="M345" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>-0.37954241335027972</v>
       </c>
@@ -16037,11 +14941,8 @@
       <c r="L346" t="s">
         <v>490</v>
       </c>
-      <c r="M346" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>-1.8349967117827281E-2</v>
       </c>
@@ -16075,11 +14976,8 @@
       <c r="L347" t="s">
         <v>490</v>
       </c>
-      <c r="M347" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>-0.1880332974111826</v>
       </c>
@@ -16113,11 +15011,8 @@
       <c r="L348" t="s">
         <v>493</v>
       </c>
-      <c r="M348" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>-1.0725101006851401</v>
       </c>
@@ -16151,11 +15046,8 @@
       <c r="L349" t="s">
         <v>493</v>
       </c>
-      <c r="M349" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0.41996186284951131</v>
       </c>
@@ -16189,11 +15081,8 @@
       <c r="L350" t="s">
         <v>496</v>
       </c>
-      <c r="M350" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3.5935401006721959</v>
       </c>
@@ -16230,11 +15119,8 @@
       <c r="L351" t="s">
         <v>498</v>
       </c>
-      <c r="M351" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0.74784840330874502</v>
       </c>
@@ -16268,11 +15154,8 @@
       <c r="L352" t="s">
         <v>500</v>
       </c>
-      <c r="M352" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1.474595826734129</v>
       </c>
@@ -16306,11 +15189,8 @@
       <c r="L353" t="s">
         <v>500</v>
       </c>
-      <c r="M353" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.42128582199187492</v>
       </c>
@@ -16344,11 +15224,8 @@
       <c r="L354" t="s">
         <v>503</v>
       </c>
-      <c r="M354" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-1.0197632165818871</v>
       </c>
@@ -16382,11 +15259,8 @@
       <c r="L355" t="s">
         <v>503</v>
       </c>
-      <c r="M355" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-0.178093203796824</v>
       </c>
@@ -16420,11 +15294,8 @@
       <c r="L356" t="s">
         <v>503</v>
       </c>
-      <c r="M356" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>-1.1315058653783361</v>
       </c>
@@ -16458,11 +15329,8 @@
       <c r="L357" t="s">
         <v>503</v>
       </c>
-      <c r="M357" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0.78164431178512617</v>
       </c>
@@ -16496,11 +15364,8 @@
       <c r="L358" t="s">
         <v>503</v>
       </c>
-      <c r="M358" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-0.4465047805841823</v>
       </c>
@@ -16534,11 +15399,8 @@
       <c r="L359" t="s">
         <v>503</v>
       </c>
-      <c r="M359" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>-0.66574373721423108</v>
       </c>
@@ -16572,11 +15434,8 @@
       <c r="L360" t="s">
         <v>503</v>
       </c>
-      <c r="M360" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>-1.0705619005171829</v>
       </c>
@@ -16610,11 +15469,8 @@
       <c r="L361" t="s">
         <v>503</v>
       </c>
-      <c r="M361" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>-1.0347561430843379</v>
       </c>
@@ -16648,11 +15504,8 @@
       <c r="L362" t="s">
         <v>503</v>
       </c>
-      <c r="M362" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>-1.3586830547272231</v>
       </c>
@@ -16686,11 +15539,8 @@
       <c r="L363" t="s">
         <v>513</v>
       </c>
-      <c r="M363" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>-0.57431552471220082</v>
       </c>
@@ -16724,11 +15574,8 @@
       <c r="L364" t="s">
         <v>515</v>
       </c>
-      <c r="M364" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>-0.12017330763150411</v>
       </c>
@@ -16762,11 +15609,8 @@
       <c r="L365" t="s">
         <v>515</v>
       </c>
-      <c r="M365" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0.33780434273441712</v>
       </c>
@@ -16800,11 +15644,8 @@
       <c r="L366" t="s">
         <v>518</v>
       </c>
-      <c r="M366" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3.267752143829485</v>
       </c>
@@ -16841,11 +15682,8 @@
       <c r="L367" t="s">
         <v>518</v>
       </c>
-      <c r="M367" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1.260259193560525</v>
       </c>
@@ -16879,11 +15717,8 @@
       <c r="L368" t="s">
         <v>521</v>
       </c>
-      <c r="M368" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>-1.1054575953301811</v>
       </c>
@@ -16917,11 +15752,8 @@
       <c r="L369" t="s">
         <v>523</v>
       </c>
-      <c r="M369" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>-0.54782992250695317</v>
       </c>
@@ -16955,11 +15787,8 @@
       <c r="L370" t="s">
         <v>523</v>
       </c>
-      <c r="M370" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-1.344927586569723</v>
       </c>
@@ -16993,11 +15822,8 @@
       <c r="L371" t="s">
         <v>523</v>
       </c>
-      <c r="M371" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.27359219069767188</v>
       </c>
@@ -17031,11 +15857,8 @@
       <c r="L372" t="s">
         <v>523</v>
       </c>
-      <c r="M372" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0.57154576522411804</v>
       </c>
@@ -17069,11 +15892,8 @@
       <c r="L373" t="s">
         <v>528</v>
       </c>
-      <c r="M373" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.9689802626976789</v>
       </c>
@@ -17107,11 +15927,8 @@
       <c r="L374" t="s">
         <v>530</v>
       </c>
-      <c r="M374" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.41554464693078003</v>
       </c>
@@ -17145,11 +15962,8 @@
       <c r="L375" t="s">
         <v>532</v>
       </c>
-      <c r="M375" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>-0.76359901709837374</v>
       </c>
@@ -17183,11 +15997,8 @@
       <c r="L376" t="s">
         <v>534</v>
       </c>
-      <c r="M376" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-1.292285879044496</v>
       </c>
@@ -17221,11 +16032,8 @@
       <c r="L377" t="s">
         <v>536</v>
       </c>
-      <c r="M377" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-1.052406931408346</v>
       </c>
@@ -17259,11 +16067,8 @@
       <c r="L378" t="s">
         <v>536</v>
       </c>
-      <c r="M378" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>-1.347668986536122</v>
       </c>
@@ -17297,11 +16102,8 @@
       <c r="L379" t="s">
         <v>536</v>
       </c>
-      <c r="M379" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-0.45989968127091518</v>
       </c>
@@ -17335,11 +16137,8 @@
       <c r="L380" t="s">
         <v>536</v>
       </c>
-      <c r="M380" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>-0.64477808524222502</v>
       </c>
@@ -17373,11 +16172,8 @@
       <c r="L381" t="s">
         <v>536</v>
       </c>
-      <c r="M381" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>-1.0327299983875931</v>
       </c>
@@ -17411,11 +16207,8 @@
       <c r="L382" t="s">
         <v>536</v>
       </c>
-      <c r="M382" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-1.0545395462760709</v>
       </c>
@@ -17449,11 +16242,8 @@
       <c r="L383" t="s">
         <v>536</v>
       </c>
-      <c r="M383" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>-0.39591563279723718</v>
       </c>
@@ -17487,11 +16277,8 @@
       <c r="L384" t="s">
         <v>536</v>
       </c>
-      <c r="M384" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>-0.12704662977890521</v>
       </c>
@@ -17525,11 +16312,8 @@
       <c r="L385" t="s">
         <v>545</v>
       </c>
-      <c r="M385" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0.18339800804140591</v>
       </c>
@@ -17563,11 +16347,8 @@
       <c r="L386" t="s">
         <v>545</v>
       </c>
-      <c r="M386" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>-0.46397355743431751</v>
       </c>
@@ -17601,11 +16382,8 @@
       <c r="L387" t="s">
         <v>548</v>
       </c>
-      <c r="M387" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-0.11293420461303651</v>
       </c>
@@ -17639,11 +16417,8 @@
       <c r="L388" t="s">
         <v>550</v>
       </c>
-      <c r="M388" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0.90709224480221184</v>
       </c>
@@ -17677,11 +16452,8 @@
       <c r="L389" t="s">
         <v>550</v>
       </c>
-      <c r="M389" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1.8205484014916169</v>
       </c>
@@ -17715,11 +16487,8 @@
       <c r="L390" t="s">
         <v>550</v>
       </c>
-      <c r="M390" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-0.82060667725206871</v>
       </c>
@@ -17753,11 +16522,8 @@
       <c r="L391" t="s">
         <v>550</v>
       </c>
-      <c r="M391" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4.1125140933448337E-2</v>
       </c>
@@ -17791,11 +16557,8 @@
       <c r="L392" t="s">
         <v>550</v>
       </c>
-      <c r="M392" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>0.1449707054515347</v>
       </c>
@@ -17829,11 +16592,8 @@
       <c r="L393" t="s">
         <v>550</v>
       </c>
-      <c r="M393" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>-0.88670368235417274</v>
       </c>
@@ -17867,11 +16627,8 @@
       <c r="L394" t="s">
         <v>557</v>
       </c>
-      <c r="M394" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>-0.73339682984549992</v>
       </c>
@@ -17905,11 +16662,8 @@
       <c r="L395" t="s">
         <v>557</v>
       </c>
-      <c r="M395" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0.28185455853310071</v>
       </c>
@@ -17943,11 +16697,8 @@
       <c r="L396" t="s">
         <v>557</v>
       </c>
-      <c r="M396" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>-0.8019089444610179</v>
       </c>
@@ -17981,11 +16732,8 @@
       <c r="L397" t="s">
         <v>557</v>
       </c>
-      <c r="M397" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>-0.39937131445124607</v>
       </c>
@@ -18019,11 +16767,8 @@
       <c r="L398" t="s">
         <v>557</v>
       </c>
-      <c r="M398" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>0.1399467190893546</v>
       </c>
@@ -18057,11 +16802,8 @@
       <c r="L399" t="s">
         <v>557</v>
       </c>
-      <c r="M399" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>-1.0854397862656759</v>
       </c>
@@ -18095,11 +16837,8 @@
       <c r="L400" t="s">
         <v>557</v>
       </c>
-      <c r="M400" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>-0.62216455454266884</v>
       </c>
@@ -18133,11 +16872,8 @@
       <c r="L401" t="s">
         <v>557</v>
       </c>
-      <c r="M401" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>-0.36875910083358282</v>
       </c>
@@ -18171,11 +16907,8 @@
       <c r="L402" t="s">
         <v>557</v>
       </c>
-      <c r="M402" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6.7854997476679418E-2</v>
       </c>
@@ -18209,11 +16942,8 @@
       <c r="L403" t="s">
         <v>557</v>
       </c>
-      <c r="M403" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>0.13994671908935491</v>
       </c>
@@ -18247,11 +16977,8 @@
       <c r="L404" t="s">
         <v>557</v>
       </c>
-      <c r="M404" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0.36142948264688518</v>
       </c>
@@ -18285,11 +17012,8 @@
       <c r="L405" t="s">
         <v>557</v>
       </c>
-      <c r="M405" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>-0.46485571272964737</v>
       </c>
@@ -18323,11 +17047,8 @@
       <c r="L406" t="s">
         <v>557</v>
       </c>
-      <c r="M406" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>-0.216074195713819</v>
       </c>
@@ -18361,11 +17082,8 @@
       <c r="L407" t="s">
         <v>557</v>
       </c>
-      <c r="M407" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>-0.19548321867227</v>
       </c>
@@ -18399,11 +17117,8 @@
       <c r="L408" t="s">
         <v>557</v>
       </c>
-      <c r="M408" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>-0.3917575853105803</v>
       </c>
@@ -18437,11 +17152,8 @@
       <c r="L409" t="s">
         <v>573</v>
       </c>
-      <c r="M409" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>5.0550183945651167E-2</v>
       </c>
@@ -18475,11 +17187,8 @@
       <c r="L410" t="s">
         <v>573</v>
       </c>
-      <c r="M410" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>-7.6278461230862238E-2</v>
       </c>
@@ -18513,11 +17222,8 @@
       <c r="L411" t="s">
         <v>573</v>
       </c>
-      <c r="M411" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>-0.9091371946885094</v>
       </c>
@@ -18551,11 +17257,8 @@
       <c r="L412" t="s">
         <v>573</v>
       </c>
-      <c r="M412" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0.34409101609361198</v>
       </c>
@@ -18589,11 +17292,8 @@
       <c r="L413" t="s">
         <v>573</v>
       </c>
-      <c r="M413" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>5.2236401590892143E-2</v>
       </c>
@@ -18627,11 +17327,8 @@
       <c r="L414" t="s">
         <v>573</v>
       </c>
-      <c r="M414" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>-1.4411934298872029</v>
       </c>
@@ -18665,11 +17362,8 @@
       <c r="L415" t="s">
         <v>573</v>
       </c>
-      <c r="M415" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>-1.321362051984015</v>
       </c>
@@ -18703,11 +17397,8 @@
       <c r="L416" t="s">
         <v>573</v>
       </c>
-      <c r="M416" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>-1.28012131503745</v>
       </c>
@@ -18741,11 +17432,8 @@
       <c r="L417" t="s">
         <v>573</v>
       </c>
-      <c r="M417" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>-0.68323416087247257</v>
       </c>
@@ -18779,11 +17467,8 @@
       <c r="L418" t="s">
         <v>573</v>
       </c>
-      <c r="M418" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>-0.82362793825131386</v>
       </c>
@@ -18817,11 +17502,8 @@
       <c r="L419" t="s">
         <v>573</v>
       </c>
-      <c r="M419" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>-0.83164248451420031</v>
       </c>
@@ -18855,11 +17537,8 @@
       <c r="L420" t="s">
         <v>573</v>
       </c>
-      <c r="M420" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>-0.96130732924546181</v>
       </c>
@@ -18893,11 +17572,8 @@
       <c r="L421" t="s">
         <v>573</v>
       </c>
-      <c r="M421" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>-0.76685322282873791</v>
       </c>
@@ -18931,11 +17607,8 @@
       <c r="L422" t="s">
         <v>573</v>
       </c>
-      <c r="M422" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>-0.8857947032504111</v>
       </c>
@@ -18969,11 +17642,8 @@
       <c r="L423" t="s">
         <v>573</v>
       </c>
-      <c r="M423" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>-1.1839087414230389</v>
       </c>
@@ -19007,11 +17677,8 @@
       <c r="L424" t="s">
         <v>573</v>
       </c>
-      <c r="M424" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>-1.214347674550083</v>
       </c>
@@ -19045,11 +17712,8 @@
       <c r="L425" t="s">
         <v>573</v>
       </c>
-      <c r="M425" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>-0.52458056459642721</v>
       </c>
@@ -19083,11 +17747,8 @@
       <c r="L426" t="s">
         <v>573</v>
       </c>
-      <c r="M426" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0.30021599734920063</v>
       </c>
@@ -19121,11 +17782,8 @@
       <c r="L427" t="s">
         <v>592</v>
       </c>
-      <c r="M427" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0.98704283008579374</v>
       </c>
@@ -19159,11 +17817,8 @@
       <c r="L428" t="s">
         <v>592</v>
       </c>
-      <c r="M428" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0.93448517697184841</v>
       </c>
@@ -19197,11 +17852,8 @@
       <c r="L429" t="s">
         <v>592</v>
       </c>
-      <c r="M429" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0.37103773034072118</v>
       </c>
@@ -19235,11 +17887,8 @@
       <c r="L430" t="s">
         <v>596</v>
       </c>
-      <c r="M430" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>-0.45936931449355001</v>
       </c>
@@ -19273,11 +17922,8 @@
       <c r="L431" t="s">
         <v>598</v>
       </c>
-      <c r="M431" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>-1.3508017001220061</v>
       </c>
@@ -19311,11 +17957,8 @@
       <c r="L432" t="s">
         <v>600</v>
       </c>
-      <c r="M432" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0.29064084912391042</v>
       </c>
@@ -19349,11 +17992,8 @@
       <c r="L433" t="s">
         <v>600</v>
       </c>
-      <c r="M433" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0.24338918882817789</v>
       </c>
@@ -19387,11 +18027,8 @@
       <c r="L434" t="s">
         <v>600</v>
       </c>
-      <c r="M434" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>-0.94970627986732359</v>
       </c>
@@ -19425,11 +18062,8 @@
       <c r="L435" t="s">
         <v>604</v>
       </c>
-      <c r="M435" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>-0.59081748117439503</v>
       </c>
@@ -19463,11 +18097,8 @@
       <c r="L436" t="s">
         <v>604</v>
       </c>
-      <c r="M436" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>0.1324394594990394</v>
       </c>
@@ -19501,11 +18132,8 @@
       <c r="L437" t="s">
         <v>604</v>
       </c>
-      <c r="M437" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0.70782516290837583</v>
       </c>
@@ -19539,11 +18167,8 @@
       <c r="L438" t="s">
         <v>604</v>
       </c>
-      <c r="M438" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0.71600604421887759</v>
       </c>
@@ -19577,11 +18202,8 @@
       <c r="L439" t="s">
         <v>604</v>
       </c>
-      <c r="M439" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>-0.29185937456953492</v>
       </c>
@@ -19615,11 +18237,8 @@
       <c r="L440" t="s">
         <v>604</v>
       </c>
-      <c r="M440" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0.2623002511375877</v>
       </c>
@@ -19653,11 +18272,8 @@
       <c r="L441" t="s">
         <v>611</v>
       </c>
-      <c r="M441" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>-0.62657298530954131</v>
       </c>
@@ -19691,11 +18307,8 @@
       <c r="L442" t="s">
         <v>611</v>
       </c>
-      <c r="M442" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>0.29889817149808873</v>
       </c>
@@ -19729,11 +18342,8 @@
       <c r="L443" t="s">
         <v>611</v>
       </c>
-      <c r="M443" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>-1.2740571047365881</v>
       </c>
@@ -19767,11 +18377,8 @@
       <c r="L444" t="s">
         <v>611</v>
       </c>
-      <c r="M444" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1.5542835204403651</v>
       </c>
@@ -19805,11 +18412,8 @@
       <c r="L445" t="s">
         <v>616</v>
       </c>
-      <c r="M445" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>-1.189750945105176</v>
       </c>
@@ -19843,11 +18447,8 @@
       <c r="L446" t="s">
         <v>618</v>
       </c>
-      <c r="M446" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>-0.40079111049831689</v>
       </c>
@@ -19881,11 +18482,8 @@
       <c r="L447" t="s">
         <v>618</v>
       </c>
-      <c r="M447" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>-0.17632239925156079</v>
       </c>
@@ -19919,11 +18517,8 @@
       <c r="L448" t="s">
         <v>618</v>
       </c>
-      <c r="M448" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>0.14381484908816031</v>
       </c>
@@ -19957,11 +18552,8 @@
       <c r="L449" t="s">
         <v>622</v>
       </c>
-      <c r="M449" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>-0.52273556389186293</v>
       </c>
@@ -19995,11 +18587,8 @@
       <c r="L450" t="s">
         <v>624</v>
       </c>
-      <c r="M450" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0.56177901845398026</v>
       </c>
@@ -20033,11 +18622,8 @@
       <c r="L451" t="s">
         <v>624</v>
       </c>
-      <c r="M451" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>-1.1511569444970311</v>
       </c>
@@ -20071,11 +18657,8 @@
       <c r="L452" t="s">
         <v>627</v>
       </c>
-      <c r="M452" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0.32184567455408569</v>
       </c>
@@ -20109,11 +18692,8 @@
       <c r="L453" t="s">
         <v>629</v>
       </c>
-      <c r="M453" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>-6.7277270954829951E-2</v>
       </c>
@@ -20147,11 +18727,8 @@
       <c r="L454" t="s">
         <v>629</v>
       </c>
-      <c r="M454" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>-1.585941962168584</v>
       </c>
@@ -20185,11 +18762,8 @@
       <c r="L455" t="s">
         <v>629</v>
       </c>
-      <c r="M455" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>0.72634397326822486</v>
       </c>
@@ -20223,11 +18797,8 @@
       <c r="L456" t="s">
         <v>629</v>
       </c>
-      <c r="M456" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>-0.50079471687666977</v>
       </c>
@@ -20261,11 +18832,8 @@
       <c r="L457" t="s">
         <v>634</v>
       </c>
-      <c r="M457" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>-0.84193265993476585</v>
       </c>
@@ -20299,11 +18867,8 @@
       <c r="L458" t="s">
         <v>636</v>
       </c>
-      <c r="M458" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0.51889284284456827</v>
       </c>
@@ -20337,11 +18902,8 @@
       <c r="L459" t="s">
         <v>636</v>
       </c>
-      <c r="M459" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>-0.46684370040539591</v>
       </c>
@@ -20375,11 +18937,8 @@
       <c r="L460" t="s">
         <v>639</v>
       </c>
-      <c r="M460" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>-0.75925782114777218</v>
       </c>
@@ -20413,11 +18972,8 @@
       <c r="L461" t="s">
         <v>641</v>
       </c>
-      <c r="M461" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>-3.4520176434826189E-2</v>
       </c>
@@ -20451,11 +19007,8 @@
       <c r="L462" t="s">
         <v>641</v>
       </c>
-      <c r="M462" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>1.0829690851032869</v>
       </c>
@@ -20489,11 +19042,8 @@
       <c r="L463" t="s">
         <v>644</v>
       </c>
-      <c r="M463" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>-0.2951477731185968</v>
       </c>
@@ -20527,11 +19077,8 @@
       <c r="L464" t="s">
         <v>646</v>
       </c>
-      <c r="M464" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1.0884426175655779</v>
       </c>
@@ -20565,11 +19112,8 @@
       <c r="L465" t="s">
         <v>648</v>
       </c>
-      <c r="M465" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.6729125447535029</v>
       </c>
@@ -20603,11 +19147,8 @@
       <c r="L466" t="s">
         <v>650</v>
       </c>
-      <c r="M466" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>-6.6705934201308922E-2</v>
       </c>
@@ -20641,11 +19182,8 @@
       <c r="L467" t="s">
         <v>652</v>
       </c>
-      <c r="M467" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>-0.43536017401975802</v>
       </c>
@@ -20679,11 +19217,8 @@
       <c r="L468" t="s">
         <v>652</v>
       </c>
-      <c r="M468" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0.21219316579397171</v>
       </c>
@@ -20717,11 +19252,8 @@
       <c r="L469" t="s">
         <v>652</v>
       </c>
-      <c r="M469" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>-0.39047937421633488</v>
       </c>
@@ -20755,11 +19287,8 @@
       <c r="L470" t="s">
         <v>656</v>
       </c>
-      <c r="M470" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>0.67478303085772329</v>
       </c>
@@ -20793,11 +19322,8 @@
       <c r="L471" t="s">
         <v>656</v>
       </c>
-      <c r="M471" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2.0044370524736168</v>
       </c>
@@ -20831,11 +19357,8 @@
       <c r="L472" t="s">
         <v>656</v>
       </c>
-      <c r="M472" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2.933691797235515</v>
       </c>
@@ -20869,11 +19392,8 @@
       <c r="L473" t="s">
         <v>656</v>
       </c>
-      <c r="M473" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2.959039529047975</v>
       </c>
@@ -20907,11 +19427,8 @@
       <c r="L474" t="s">
         <v>656</v>
       </c>
-      <c r="M474" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0.58394725092046851</v>
       </c>
@@ -20945,11 +19462,8 @@
       <c r="L475" t="s">
         <v>656</v>
       </c>
-      <c r="M475" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>0.55135965719493774</v>
       </c>
@@ -20983,11 +19497,8 @@
       <c r="L476" t="s">
         <v>656</v>
       </c>
-      <c r="M476" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1.0913423769079971</v>
       </c>
@@ -21021,11 +19532,8 @@
       <c r="L477" t="s">
         <v>656</v>
       </c>
-      <c r="M477" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2.2779458352817299</v>
       </c>
@@ -21059,11 +19567,8 @@
       <c r="L478" t="s">
         <v>656</v>
       </c>
-      <c r="M478" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1.2404498599116021</v>
       </c>
@@ -21097,11 +19602,8 @@
       <c r="L479" t="s">
         <v>656</v>
       </c>
-      <c r="M479" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1.011722502914465</v>
       </c>
@@ -21135,11 +19637,8 @@
       <c r="L480" t="s">
         <v>667</v>
       </c>
-      <c r="M480" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1.012780364574897</v>
       </c>
@@ -21173,11 +19672,8 @@
       <c r="L481" t="s">
         <v>667</v>
       </c>
-      <c r="M481" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2.0201749159553288</v>
       </c>
@@ -21214,11 +19710,8 @@
       <c r="L482" t="s">
         <v>667</v>
       </c>
-      <c r="M482" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>-0.58545330776701276</v>
       </c>
@@ -21252,11 +19745,8 @@
       <c r="L483" t="s">
         <v>671</v>
       </c>
-      <c r="M483" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>-0.19971316248992479</v>
       </c>
@@ -21290,11 +19780,8 @@
       <c r="L484" t="s">
         <v>671</v>
       </c>
-      <c r="M484" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>-0.68467940199937716</v>
       </c>
@@ -21328,11 +19815,8 @@
       <c r="L485" t="s">
         <v>671</v>
       </c>
-      <c r="M485" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>-0.74885993659544714</v>
       </c>
@@ -21366,11 +19850,8 @@
       <c r="L486" t="s">
         <v>671</v>
       </c>
-      <c r="M486" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>-0.6468253626809346</v>
       </c>
@@ -21404,11 +19885,8 @@
       <c r="L487" t="s">
         <v>671</v>
       </c>
-      <c r="M487" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>-0.55628721492388555</v>
       </c>
@@ -21442,11 +19920,8 @@
       <c r="L488" t="s">
         <v>671</v>
       </c>
-      <c r="M488" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>-0.69406672788866153</v>
       </c>
@@ -21480,11 +19955,8 @@
       <c r="L489" t="s">
         <v>671</v>
       </c>
-      <c r="M489" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>-0.33266313905160533</v>
       </c>
@@ -21518,11 +19990,8 @@
       <c r="L490" t="s">
         <v>671</v>
       </c>
-      <c r="M490" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>-0.73155225046356487</v>
       </c>
@@ -21556,11 +20025,8 @@
       <c r="L491" t="s">
         <v>671</v>
       </c>
-      <c r="M491" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>-1.002150823997678</v>
       </c>
@@ -21594,11 +20060,8 @@
       <c r="L492" t="s">
         <v>671</v>
       </c>
-      <c r="M492" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>-0.8813420138733673</v>
       </c>
@@ -21632,11 +20095,8 @@
       <c r="L493" t="s">
         <v>671</v>
       </c>
-      <c r="M493" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>-0.62474029647175366</v>
       </c>
@@ -21670,11 +20130,8 @@
       <c r="L494" t="s">
         <v>671</v>
       </c>
-      <c r="M494" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>-0.23954508621236989</v>
       </c>
@@ -21708,11 +20165,8 @@
       <c r="L495" t="s">
         <v>671</v>
       </c>
-      <c r="M495" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2.1692427958374578</v>
       </c>
@@ -21749,11 +20203,8 @@
       <c r="L496" t="s">
         <v>685</v>
       </c>
-      <c r="M496" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1.401280453234288</v>
       </c>
@@ -21787,11 +20238,8 @@
       <c r="L497" t="s">
         <v>685</v>
       </c>
-      <c r="M497" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>-1.214967870937526</v>
       </c>
@@ -21825,11 +20273,8 @@
       <c r="L498" t="s">
         <v>688</v>
       </c>
-      <c r="M498" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>9.7960267640425924E-2</v>
       </c>
@@ -21863,11 +20308,8 @@
       <c r="L499" t="s">
         <v>690</v>
       </c>
-      <c r="M499" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>-0.2350481650744379</v>
       </c>
@@ -21901,11 +20343,8 @@
       <c r="L500" t="s">
         <v>692</v>
       </c>
-      <c r="M500" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>-9.016797394338838E-2</v>
       </c>
@@ -21939,11 +20378,8 @@
       <c r="L501" t="s">
         <v>692</v>
       </c>
-      <c r="M501" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>-0.54207735577362703</v>
       </c>
@@ -21977,11 +20413,8 @@
       <c r="L502" t="s">
         <v>692</v>
       </c>
-      <c r="M502" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>0.3361868776064027</v>
       </c>
@@ -22015,11 +20448,8 @@
       <c r="L503" t="s">
         <v>692</v>
       </c>
-      <c r="M503" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>-0.33294953242810871</v>
       </c>
@@ -22053,11 +20483,8 @@
       <c r="L504" t="s">
         <v>692</v>
       </c>
-      <c r="M504" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>-0.33663606760668552</v>
       </c>
@@ -22091,11 +20518,8 @@
       <c r="L505" t="s">
         <v>692</v>
       </c>
-      <c r="M505" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>0.33490243107398171</v>
       </c>
@@ -22129,11 +20553,8 @@
       <c r="L506" t="s">
         <v>692</v>
       </c>
-      <c r="M506" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>-0.36806376565717791</v>
       </c>
@@ -22167,11 +20588,8 @@
       <c r="L507" t="s">
         <v>692</v>
       </c>
-      <c r="M507" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>0.56743151185722007</v>
       </c>
@@ -22205,11 +20623,8 @@
       <c r="L508" t="s">
         <v>692</v>
       </c>
-      <c r="M508" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>0.5572909158315561</v>
       </c>
@@ -22243,11 +20658,8 @@
       <c r="L509" t="s">
         <v>692</v>
       </c>
-      <c r="M509" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>0.68565152488823233</v>
       </c>
@@ -22281,11 +20693,8 @@
       <c r="L510" t="s">
         <v>692</v>
       </c>
-      <c r="M510" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>0.61717139767241946</v>
       </c>
@@ -22319,11 +20728,8 @@
       <c r="L511" t="s">
         <v>692</v>
       </c>
-      <c r="M511" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>-0.84239135738238846</v>
       </c>
@@ -22357,11 +20763,8 @@
       <c r="L512" t="s">
         <v>705</v>
       </c>
-      <c r="M512" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>-0.33652191943697729</v>
       </c>
@@ -22395,11 +20798,8 @@
       <c r="L513" t="s">
         <v>705</v>
       </c>
-      <c r="M513" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1.5067877546820261</v>
       </c>
@@ -22433,11 +20833,8 @@
       <c r="L514" t="s">
         <v>705</v>
       </c>
-      <c r="M514" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>9.776825980557885E-2</v>
       </c>
@@ -22471,11 +20868,8 @@
       <c r="L515" t="s">
         <v>705</v>
       </c>
-      <c r="M515" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2.9040969362595578E-2</v>
       </c>
@@ -22509,11 +20903,8 @@
       <c r="L516" t="s">
         <v>710</v>
       </c>
-      <c r="M516" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>8.3015614808282845E-2</v>
       </c>
@@ -22547,11 +20938,8 @@
       <c r="L517" t="s">
         <v>710</v>
       </c>
-      <c r="M517" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>8.0753909086399969E-2</v>
       </c>
@@ -22585,11 +20973,8 @@
       <c r="L518" t="s">
         <v>713</v>
       </c>
-      <c r="M518" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>0.1100418808556879</v>
       </c>
@@ -22623,11 +21008,8 @@
       <c r="L519" t="s">
         <v>713</v>
       </c>
-      <c r="M519" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>-0.79336077381794468</v>
       </c>
@@ -22661,11 +21043,8 @@
       <c r="L520" t="s">
         <v>716</v>
       </c>
-      <c r="M520" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>-0.33679440647619457</v>
       </c>
@@ -22699,11 +21078,8 @@
       <c r="L521" t="s">
         <v>716</v>
       </c>
-      <c r="M521" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>-0.101056712193599</v>
       </c>
@@ -22737,11 +21113,8 @@
       <c r="L522" t="s">
         <v>716</v>
       </c>
-      <c r="M522" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>-0.1493594623669168</v>
       </c>
@@ -22775,11 +21148,8 @@
       <c r="L523" t="s">
         <v>720</v>
       </c>
-      <c r="M523" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>7.2717973260188071E-2</v>
       </c>
@@ -22813,11 +21183,8 @@
       <c r="L524" t="s">
         <v>722</v>
       </c>
-      <c r="M524" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>-1.57508474080554</v>
       </c>
@@ -22851,11 +21218,8 @@
       <c r="L525" t="s">
         <v>724</v>
       </c>
-      <c r="M525" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5.0648929635869207E-2</v>
       </c>
@@ -22889,11 +21253,8 @@
       <c r="L526" t="s">
         <v>724</v>
       </c>
-      <c r="M526" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>0.58735145909594633</v>
       </c>
@@ -22927,11 +21288,8 @@
       <c r="L527" t="s">
         <v>727</v>
       </c>
-      <c r="M527" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>0.1245196735694262</v>
       </c>
@@ -22965,11 +21323,8 @@
       <c r="L528" t="s">
         <v>729</v>
       </c>
-      <c r="M528" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>0.58647738693338491</v>
       </c>
@@ -23003,11 +21358,8 @@
       <c r="L529" t="s">
         <v>731</v>
       </c>
-      <c r="M529" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>0.39954154120673041</v>
       </c>
@@ -23041,11 +21393,8 @@
       <c r="L530" t="s">
         <v>731</v>
       </c>
-      <c r="M530" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>-0.51923127490317422</v>
       </c>
@@ -23079,11 +21428,8 @@
       <c r="L531" t="s">
         <v>734</v>
       </c>
-      <c r="M531" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>-0.46352781876002369</v>
       </c>
@@ -23117,11 +21463,8 @@
       <c r="L532" t="s">
         <v>734</v>
       </c>
-      <c r="M532" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>-0.31524238152777762</v>
       </c>
@@ -23155,11 +21498,8 @@
       <c r="L533" t="s">
         <v>734</v>
       </c>
-      <c r="M533" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>-0.36055133500375808</v>
       </c>
@@ -23193,11 +21533,8 @@
       <c r="L534" t="s">
         <v>734</v>
       </c>
-      <c r="M534" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>-1.4421255917273629E-2</v>
       </c>
@@ -23231,11 +21568,8 @@
       <c r="L535" t="s">
         <v>734</v>
       </c>
-      <c r="M535" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0.1765354711159639</v>
       </c>
@@ -23269,11 +21603,8 @@
       <c r="L536" t="s">
         <v>734</v>
       </c>
-      <c r="M536" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>-1.0731076847882091</v>
       </c>
@@ -23307,11 +21638,8 @@
       <c r="L537" t="s">
         <v>734</v>
       </c>
-      <c r="M537" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>-0.87524174922817477</v>
       </c>
@@ -23345,11 +21673,8 @@
       <c r="L538" t="s">
         <v>734</v>
       </c>
-      <c r="M538" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>-0.71774705256428661</v>
       </c>
@@ -23383,11 +21708,8 @@
       <c r="L539" t="s">
         <v>734</v>
       </c>
-      <c r="M539" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>-0.67441979910070105</v>
       </c>
@@ -23421,11 +21743,8 @@
       <c r="L540" t="s">
         <v>734</v>
       </c>
-      <c r="M540" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>-0.88258606896619729</v>
       </c>
@@ -23459,11 +21778,8 @@
       <c r="L541" t="s">
         <v>734</v>
       </c>
-      <c r="M541" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>-0.73339928657806952</v>
       </c>
@@ -23497,11 +21813,8 @@
       <c r="L542" t="s">
         <v>734</v>
       </c>
-      <c r="M542" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>-1.3399447661591171</v>
       </c>
@@ -23535,11 +21848,8 @@
       <c r="L543" t="s">
         <v>747</v>
       </c>
-      <c r="M543" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>-0.79741832012576941</v>
       </c>
@@ -23573,11 +21883,8 @@
       <c r="L544" t="s">
         <v>747</v>
       </c>
-      <c r="M544" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>-0.33679999293534107</v>
       </c>
@@ -23611,11 +21918,8 @@
       <c r="L545" t="s">
         <v>747</v>
       </c>
-      <c r="M545" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>-0.5158417607250404</v>
       </c>
@@ -23649,11 +21953,8 @@
       <c r="L546" t="s">
         <v>747</v>
       </c>
-      <c r="M546" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>-0.92613936206045799</v>
       </c>
@@ -23687,11 +21988,8 @@
       <c r="L547" t="s">
         <v>747</v>
       </c>
-      <c r="M547" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>-0.57169533428064523</v>
       </c>
@@ -23725,11 +22023,8 @@
       <c r="L548" t="s">
         <v>747</v>
       </c>
-      <c r="M548" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>-1.4453356994061659</v>
       </c>
@@ -23763,11 +22058,8 @@
       <c r="L549" t="s">
         <v>747</v>
       </c>
-      <c r="M549" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>-1.564115638553828</v>
       </c>
@@ -23801,11 +22093,8 @@
       <c r="L550" t="s">
         <v>747</v>
       </c>
-      <c r="M550" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>-0.78656484263126336</v>
       </c>
@@ -23839,11 +22128,8 @@
       <c r="L551" t="s">
         <v>747</v>
       </c>
-      <c r="M551" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>-1.2051289351266341</v>
       </c>
@@ -23877,11 +22163,8 @@
       <c r="L552" t="s">
         <v>747</v>
       </c>
-      <c r="M552" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>0.42879809286844012</v>
       </c>
@@ -23915,11 +22198,8 @@
       <c r="L553" t="s">
         <v>758</v>
       </c>
-      <c r="M553" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>-7.0330074243172332E-3</v>
       </c>
@@ -23953,11 +22233,8 @@
       <c r="L554" t="s">
         <v>758</v>
       </c>
-      <c r="M554" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>-0.6527536674193366</v>
       </c>
@@ -23991,11 +22268,8 @@
       <c r="L555" t="s">
         <v>761</v>
       </c>
-      <c r="M555" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>0.53182579365989902</v>
       </c>
@@ -24029,11 +22303,8 @@
       <c r="L556" t="s">
         <v>763</v>
       </c>
-      <c r="M556" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1.0537965998730401</v>
       </c>
@@ -24067,11 +22338,8 @@
       <c r="L557" t="s">
         <v>765</v>
       </c>
-      <c r="M557" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>-0.1905197080920451</v>
       </c>
@@ -24105,11 +22373,8 @@
       <c r="L558" t="s">
         <v>767</v>
       </c>
-      <c r="M558" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>-1.2123959733579659</v>
       </c>
@@ -24143,11 +22408,8 @@
       <c r="L559" t="s">
         <v>769</v>
       </c>
-      <c r="M559" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>-0.1382321215586195</v>
       </c>
@@ -24181,11 +22443,8 @@
       <c r="L560" t="s">
         <v>769</v>
       </c>
-      <c r="M560" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>5.3815128544251953E-2</v>
       </c>
@@ -24219,11 +22478,8 @@
       <c r="L561" t="s">
         <v>772</v>
       </c>
-      <c r="M561" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>-0.90687534912446166</v>
       </c>
@@ -24256,9 +22512,6 @@
       </c>
       <c r="L562" t="s">
         <v>772</v>
-      </c>
-      <c r="M562" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>
